--- a/Speaker DB/SpeakerDB (March 2019).xlsx
+++ b/Speaker DB/SpeakerDB (March 2019).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmrplens/Documents/GitHub/LoVE-BASS/Speaker DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7CA8CF-98E9-924A-9246-FFB3F7CC9835}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D4A073-4442-0D4B-AE65-318074FAF07B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Name</t>
   </si>
@@ -349,6 +349,420 @@
   </si>
   <si>
     <t>Beyma SM-212</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10CL51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10CLA64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10FW64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10HPL64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10MBX64_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10MBX64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10MD26_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10NDL64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10NW64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10NW76_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 10NW76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12BG100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12BG76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12CL64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12CL76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12CLA76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12FW64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12FW76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12MH32_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NBX100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NBX100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NDL76_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NDL76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NDL88_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NDL88_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NW100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NW100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NW76_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12NW76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12PE32_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12PLB100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12PLB76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12PS100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12TBX100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 12TBX100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 14NA100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 14NDL76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 14NDL88_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 14NDL88_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15BG100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15CL76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15CLA76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15DS115_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15DS115_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15FW76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NA100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NBX100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NBX100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NDL76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NDL88_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NDL88_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NW100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NW100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NW76_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15NW76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15PLB76_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15PS100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15PZB100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15RBX100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15RBX100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15SW100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15SW100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15SW115_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15SW115_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15TBW100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15TBW100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15TBX100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 15TBX100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18DS115_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18DS115_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18IPAL_2</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18NBX100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18NBX100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18NW100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18NW100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18PS100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18PZB100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18RBX100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18RBX100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18SW100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18SW100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18SW115_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18SW115_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18TBW100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18TBW100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18TBX100_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 18TBX100_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 21DS115_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 21DS115_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 21IPAL_1</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 21SW115_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 21SW115_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 21SW152_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 21SW152_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 2NDF26_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 320K_C-A_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 320K_C-A_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 35NDF26_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 4NDF34_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 4NDS34_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 5FG44_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 5FG44_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 5MDN38_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 5MDN38_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 5NDL38_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6MBX44_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6MBX44_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6MD38_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6MD38_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6MDN44_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6MDN44_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6NDL38_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6NDL38_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6NDL38_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6PEV13_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6PS38_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 6PS44_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8BG51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8CL51_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8CL51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8FG51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8FG64_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8FG64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8FW51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8MBX51_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8MBX51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8MDN51_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8MDN51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8NDL51_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8NDL51_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8NDL51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8NDL64_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8NDL64_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8NW51_16</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8NW51_4</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8NW51_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8PE21_8</t>
+  </si>
+  <si>
+    <t>B&amp;C Speakers 8PS21_8</t>
   </si>
 </sst>
 </file>
@@ -1013,9 +1427,9 @@
   <dimension ref="A1:Q493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2080" activePane="bottomLeft"/>
+      <pane ySplit="2080" topLeftCell="A3" activePane="bottomLeft"/>
       <selection sqref="A1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1149,35 +1563,34 @@
     </row>
     <row r="4" spans="1:17" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B4" s="7">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="D4" s="7">
-        <v>3.29</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="F4" s="7">
-        <f>0.038*10^4</f>
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7">
-        <v>108.2</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I4" s="7">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="J4" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="12"/>
@@ -1188,31 +1601,31 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B5" s="7">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D5" s="7">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="E5" s="7">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="F5" s="7">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7">
-        <v>44</v>
+        <v>18.5</v>
       </c>
       <c r="H5" s="7">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J5" s="5">
         <v>250</v>
@@ -1226,34 +1639,34 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B6" s="7">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C6" s="7">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="E6" s="7">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="7">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="G6" s="7">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="5">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="12"/>
@@ -1264,34 +1677,34 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B7" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="7">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="D7" s="7">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="F7" s="7">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="12"/>
@@ -1302,34 +1715,34 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B8" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7">
-        <v>5.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D8" s="7">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="E8" s="7">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="F8" s="7">
+        <v>346</v>
+      </c>
+      <c r="G8" s="7">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J8" s="5">
         <v>350</v>
-      </c>
-      <c r="G8" s="7">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>700</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="12"/>
@@ -1340,34 +1753,34 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B9" s="7">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="D9" s="7">
-        <v>22</v>
+        <v>5.6</v>
       </c>
       <c r="E9" s="7">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="F9" s="7">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="G9" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="J9" s="5">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="12"/>
@@ -1378,34 +1791,34 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B10" s="7">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D10" s="7">
-        <v>10.1</v>
+        <v>4.8</v>
       </c>
       <c r="E10" s="7">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="F10" s="7">
+        <v>320</v>
+      </c>
+      <c r="G10" s="7">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J10" s="5">
         <v>350</v>
-      </c>
-      <c r="G10" s="7">
-        <v>18.8</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J10" s="5">
-        <v>500</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="12"/>
@@ -1416,34 +1829,34 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B11" s="7">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="D11" s="7">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="E11" s="7">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F11" s="7">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
         <v>0.9</v>
       </c>
       <c r="J11" s="5">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="12"/>
@@ -1454,31 +1867,31 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B12" s="7">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C12" s="7">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="D12" s="7">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="E12" s="7">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="F12" s="7">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G12" s="7">
-        <v>50.9</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="J12" s="5">
         <v>300</v>
@@ -1492,34 +1905,34 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B13" s="7">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>5.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E13" s="7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F13" s="7">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7">
-        <v>39.299999999999997</v>
+        <v>18.5</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J13" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="12"/>
@@ -1530,34 +1943,34 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B14" s="7">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D14" s="7">
-        <v>4.4400000000000004</v>
+        <v>7.8</v>
       </c>
       <c r="E14" s="7">
-        <v>0.56000000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="F14" s="7">
-        <v>540</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7">
-        <v>142</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="I14" s="7">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="J14" s="5">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="12"/>
@@ -1568,34 +1981,34 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B15" s="7">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D15" s="7">
-        <v>3.9</v>
+        <v>6.8</v>
       </c>
       <c r="E15" s="7">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="F15" s="7">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G15" s="7">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J15" s="5">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="12"/>
@@ -1606,31 +2019,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B16" s="7">
         <v>44</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="D16" s="7">
-        <v>11.6</v>
+        <v>5.9</v>
       </c>
       <c r="E16" s="7">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="F16" s="7">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G16" s="7">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="I16" s="7">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J16" s="5">
         <v>500</v>
@@ -1644,31 +2057,31 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B17" s="7">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="D17" s="7">
-        <v>14.8</v>
+        <v>4.3</v>
       </c>
       <c r="E17" s="7">
-        <v>1.26</v>
+        <v>0.32</v>
       </c>
       <c r="F17" s="7">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I17" s="7">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J17" s="5">
         <v>250</v>
@@ -1682,34 +2095,34 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B18" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D18" s="7">
-        <v>15.3</v>
+        <v>4.8</v>
       </c>
       <c r="E18" s="7">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="F18" s="7">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G18" s="7">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="J18" s="5">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="12"/>
@@ -1720,34 +2133,34 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B19" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D19" s="7">
-        <v>8.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E19" s="7">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="F19" s="7">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7">
-        <v>54.9</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="I19" s="7">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="J19" s="5">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="12"/>
@@ -1758,34 +2171,34 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B20" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7">
         <v>5.2</v>
       </c>
       <c r="D20" s="7">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="E20" s="7">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F20" s="7">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="12"/>
@@ -1796,31 +2209,31 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B21" s="7">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D21" s="7">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="E21" s="7">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="F21" s="7">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G21" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="J21" s="5">
         <v>500</v>
@@ -1834,34 +2247,34 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B22" s="7">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C22" s="7">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="D22" s="7">
-        <v>5.54</v>
+        <v>7.2</v>
       </c>
       <c r="E22" s="7">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F22" s="7">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="J22" s="5">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="12"/>
@@ -1872,34 +2285,34 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B23" s="7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7">
-        <v>5.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="D23" s="7">
-        <v>7.89</v>
+        <v>7.05</v>
       </c>
       <c r="E23" s="7">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="F23" s="7">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="G23" s="7">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="J23" s="5">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="12"/>
@@ -1910,34 +2323,34 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B24" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D24" s="7">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="E24" s="7">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F24" s="7">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="G24" s="7">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="J24" s="5">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="12"/>
@@ -1948,34 +2361,34 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B25" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D25" s="7">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="E25" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F25" s="7">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G25" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H25" s="7">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="J25" s="5">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="12"/>
@@ -1986,34 +2399,34 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B26" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="D26" s="7">
-        <v>12.07</v>
+        <v>4.2</v>
       </c>
       <c r="E26" s="7">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="F26" s="7">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G26" s="7">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="12"/>
@@ -2024,34 +2437,34 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B27" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C27" s="7">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="D27" s="7">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="E27" s="7">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="F27" s="7">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G27" s="7">
-        <v>77.900000000000006</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="I27" s="7">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="J27" s="5">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="12"/>
@@ -2062,34 +2475,34 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B28" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E28" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F28" s="7">
-        <v>880</v>
+        <v>522</v>
       </c>
       <c r="G28" s="7">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H28" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="7">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J28" s="5">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="12"/>
@@ -2100,34 +2513,34 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B29" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
-        <v>5.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D29" s="7">
-        <v>21.2</v>
+        <v>5.8</v>
       </c>
       <c r="E29" s="7">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
       <c r="F29" s="7">
-        <v>910</v>
+        <v>531</v>
       </c>
       <c r="G29" s="7">
-        <v>105</v>
+        <v>43.3</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
       </c>
       <c r="I29" s="7">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="J29" s="5">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="12"/>
@@ -2138,34 +2551,34 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B30" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D30" s="7">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="E30" s="7">
-        <v>0.49</v>
+        <v>0.21</v>
       </c>
       <c r="F30" s="7">
-        <v>880</v>
+        <v>531</v>
       </c>
       <c r="G30" s="7">
-        <v>131.5</v>
+        <v>44</v>
       </c>
       <c r="H30" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="J30" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="12"/>
@@ -2176,34 +2589,34 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B31" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="D31" s="7">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="E31" s="7">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="F31" s="7">
-        <v>880</v>
+        <v>522</v>
       </c>
       <c r="G31" s="7">
-        <v>148</v>
+        <v>64.5</v>
       </c>
       <c r="H31" s="7">
-        <v>9.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="I31" s="7">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J31" s="5">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="12"/>
@@ -2214,34 +2627,34 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B32" s="7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D32" s="7">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="E32" s="7">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="F32" s="7">
-        <v>880</v>
+        <v>522</v>
       </c>
       <c r="G32" s="7">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H32" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I32" s="7">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="J32" s="5">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="12"/>
@@ -2252,34 +2665,34 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B33" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7">
         <v>5.8</v>
       </c>
       <c r="D33" s="7">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="E33" s="7">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="F33" s="7">
-        <v>880</v>
+        <v>522</v>
       </c>
       <c r="G33" s="7">
-        <v>133.5</v>
+        <v>101</v>
       </c>
       <c r="H33" s="7">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="I33" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J33" s="5">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="12"/>
@@ -2290,34 +2703,34 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B34" s="7">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7">
-        <v>6.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D34" s="7">
-        <v>6.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E34" s="7">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="F34" s="7">
-        <v>880</v>
+        <v>531</v>
       </c>
       <c r="G34" s="7">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="H34" s="7">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="I34" s="7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J34" s="5">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="12"/>
@@ -2328,34 +2741,34 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B35" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="E35" s="7">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="F35" s="7">
-        <v>855</v>
+        <v>522</v>
       </c>
       <c r="G35" s="7">
-        <v>80.7</v>
+        <v>75</v>
       </c>
       <c r="H35" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I35" s="7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="J35" s="5">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="12"/>
@@ -2366,34 +2779,34 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B36" s="7">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7">
         <v>5.3</v>
       </c>
       <c r="D36" s="7">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="E36" s="7">
-        <v>0.19</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F36" s="7">
-        <v>880</v>
+        <v>531</v>
       </c>
       <c r="G36" s="7">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="H36" s="7">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I36" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="J36" s="5">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="12"/>
@@ -2404,34 +2817,34 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B37" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7">
-        <v>5.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="D37" s="7">
-        <v>5.0999999999999996</v>
+        <v>6.23</v>
       </c>
       <c r="E37" s="7">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F37" s="7">
-        <v>880</v>
+        <v>531</v>
       </c>
       <c r="G37" s="7">
-        <v>184</v>
+        <v>41.1</v>
       </c>
       <c r="H37" s="7">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I37" s="7">
-        <v>0.8</v>
+        <v>1.74</v>
       </c>
       <c r="J37" s="5">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="12"/>
@@ -2442,34 +2855,34 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B38" s="7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D38" s="7">
-        <v>8.1999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="E38" s="7">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="F38" s="7">
-        <v>880</v>
+        <v>531</v>
       </c>
       <c r="G38" s="7">
-        <v>224</v>
+        <v>37.5</v>
       </c>
       <c r="H38" s="7">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="I38" s="7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J38" s="5">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="12"/>
@@ -2480,34 +2893,34 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B39" s="7">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C39" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D39" s="7">
         <v>5.6</v>
       </c>
-      <c r="D39" s="7">
-        <v>9.1</v>
-      </c>
       <c r="E39" s="7">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="F39" s="7">
-        <v>880</v>
+        <v>707</v>
       </c>
       <c r="G39" s="7">
-        <v>233</v>
+        <v>99.5</v>
       </c>
       <c r="H39" s="7">
-        <v>6.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I39" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="J39" s="5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="12"/>
@@ -2518,34 +2931,34 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B40" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C40" s="7">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="7">
-        <v>7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E40" s="7">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="F40" s="7">
-        <v>1320</v>
+        <v>707</v>
       </c>
       <c r="G40" s="7">
-        <v>290</v>
+        <v>123</v>
       </c>
       <c r="H40" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I40" s="7">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J40" s="5">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="12"/>
@@ -2556,34 +2969,34 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B41" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C41" s="7">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="D41" s="7">
-        <v>11.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E41" s="7">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="F41" s="7">
-        <v>1255</v>
+        <v>707</v>
       </c>
       <c r="G41" s="7">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="H41" s="7">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="I41" s="7">
-        <v>1.9</v>
+        <v>0.85</v>
       </c>
       <c r="J41" s="5">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="12"/>
@@ -2594,31 +3007,31 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B42" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C42" s="7">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D42" s="7">
-        <v>15.7</v>
+        <v>7.8</v>
       </c>
       <c r="E42" s="7">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="F42" s="7">
-        <v>1320</v>
+        <v>707</v>
       </c>
       <c r="G42" s="7">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="H42" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I42" s="7">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="J42" s="5">
         <v>700</v>
@@ -2632,34 +3045,34 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B43" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D43" s="7">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F43" s="7">
+        <v>855</v>
+      </c>
+      <c r="G43" s="7">
+        <v>83</v>
+      </c>
+      <c r="H43" s="7">
         <v>10.5</v>
       </c>
-      <c r="E43" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1250</v>
-      </c>
-      <c r="G43" s="7">
-        <v>230</v>
-      </c>
-      <c r="H43" s="7">
-        <v>8</v>
-      </c>
       <c r="I43" s="7">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="J43" s="5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="12"/>
@@ -2670,34 +3083,34 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B44" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C44" s="7">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D44" s="7">
-        <v>10.39</v>
+        <v>7.9</v>
       </c>
       <c r="E44" s="7">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F44" s="7">
-        <v>1225</v>
+        <v>855</v>
       </c>
       <c r="G44" s="7">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="H44" s="7">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="I44" s="7">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="J44" s="5">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="12"/>
@@ -2708,34 +3121,34 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B45" s="7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C45" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D45" s="7">
-        <v>10.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="E45" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="F45" s="7">
-        <v>1255</v>
+        <v>855</v>
       </c>
       <c r="G45" s="7">
-        <v>228.9</v>
+        <v>176</v>
       </c>
       <c r="H45" s="7">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="I45" s="7">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="5">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="12"/>
@@ -2746,34 +3159,34 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B46" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C46" s="7">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="D46" s="7">
-        <v>8.1999999999999993</v>
+        <v>4.7</v>
       </c>
       <c r="E46" s="7">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="F46" s="7">
-        <v>1255</v>
+        <v>855</v>
       </c>
       <c r="G46" s="7">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="H46" s="7">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="I46" s="7">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="J46" s="5">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="12"/>
@@ -2784,34 +3197,34 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B47" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" s="7">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D47" s="7">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="E47" s="7">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="F47" s="7">
-        <v>1255</v>
+        <v>855</v>
       </c>
       <c r="G47" s="7">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="H47" s="7">
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="I47" s="7">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="J47" s="5">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="12"/>
@@ -2822,34 +3235,34 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B48" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C48" s="7">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D48" s="7">
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E48" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="F48" s="7">
-        <v>1734</v>
+        <v>855</v>
       </c>
       <c r="G48" s="7">
-        <v>394</v>
+        <v>138</v>
       </c>
       <c r="H48" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I48" s="7">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J48" s="5">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="12"/>
@@ -2860,35 +3273,34 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B49" s="7">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C49" s="7">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D49" s="7">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="E49" s="7">
-        <v>0.52</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F49" s="7">
-        <f>0.003*10^4</f>
-        <v>30</v>
+        <v>855</v>
       </c>
       <c r="G49" s="7">
-        <v>0.67</v>
+        <v>88</v>
       </c>
       <c r="H49" s="7">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="I49" s="7">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="J49" s="5">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="12"/>
@@ -2899,34 +3311,34 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="B50" s="7">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C50" s="7">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="D50" s="7">
-        <v>9.5</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="E50" s="7">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F50" s="7">
-        <v>30</v>
+        <v>855</v>
       </c>
       <c r="G50" s="7">
-        <v>0.55000000000000004</v>
+        <v>109.6</v>
       </c>
       <c r="H50" s="7">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="I50" s="7">
-        <v>0.3</v>
+        <v>1.58</v>
       </c>
       <c r="J50" s="5">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="12"/>
@@ -2937,35 +3349,34 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="B51" s="7">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C51" s="7">
-        <v>6.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D51" s="7">
-        <v>11.3</v>
+        <v>4.2</v>
       </c>
       <c r="E51" s="7">
-        <v>0.96</v>
+        <v>0.31</v>
       </c>
       <c r="F51" s="7">
-        <f>0.0055*10^4</f>
-        <v>55</v>
+        <v>855</v>
       </c>
       <c r="G51" s="7">
-        <v>2.8</v>
+        <v>125</v>
       </c>
       <c r="H51" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I51" s="7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J51" s="5">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="12"/>
@@ -2976,35 +3387,34 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="B52" s="7">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C52" s="7">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="D52" s="7">
-        <v>10.8</v>
+        <v>4.5</v>
       </c>
       <c r="E52" s="7">
-        <v>0.78</v>
+        <v>0.24</v>
       </c>
       <c r="F52" s="7">
-        <f>0.0055*10^4</f>
-        <v>55</v>
+        <v>855</v>
       </c>
       <c r="G52" s="7">
-        <v>2.7</v>
+        <v>195</v>
       </c>
       <c r="H52" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I52" s="7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="J52" s="5">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="12"/>
@@ -3015,34 +3425,34 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="B53" s="7">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="C53" s="7">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="7">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="E53" s="7">
-        <v>0.53</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F53" s="7">
-        <v>85</v>
+        <v>855</v>
       </c>
       <c r="G53" s="7">
-        <v>1.45</v>
+        <v>154</v>
       </c>
       <c r="H53" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I53" s="7">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="J53" s="5">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="12"/>
@@ -3053,34 +3463,34 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="B54" s="7">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C54" s="7">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D54" s="7">
-        <v>2.2999999999999998</v>
+        <v>6.1</v>
       </c>
       <c r="E54" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="F54" s="7">
-        <v>85</v>
+        <v>855</v>
       </c>
       <c r="G54" s="7">
-        <v>5.8</v>
+        <v>126</v>
       </c>
       <c r="H54" s="7">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="I54" s="7">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="J54" s="5">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="12"/>
@@ -3091,34 +3501,34 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="B55" s="7">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C55" s="7">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="D55" s="7">
-        <v>7.5</v>
+        <v>5.41</v>
       </c>
       <c r="E55" s="7">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="F55" s="7">
-        <v>95</v>
+        <v>855</v>
       </c>
       <c r="G55" s="7">
-        <v>5.69</v>
+        <v>126.1</v>
       </c>
       <c r="H55" s="7">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="I55" s="7">
-        <v>0.6</v>
+        <v>1.74</v>
       </c>
       <c r="J55" s="5">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="12"/>
@@ -3129,34 +3539,34 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="B56" s="7">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C56" s="7">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D56" s="7">
-        <v>10.7</v>
+        <v>4.3</v>
       </c>
       <c r="E56" s="7">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="F56" s="7">
-        <v>95</v>
+        <v>855</v>
       </c>
       <c r="G56" s="7">
-        <v>4.5</v>
+        <v>139</v>
       </c>
       <c r="H56" s="7">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="I56" s="7">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="J56" s="5">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="12"/>
@@ -3167,35 +3577,34 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="7">
         <v>39</v>
       </c>
-      <c r="B57" s="7">
-        <v>56</v>
-      </c>
       <c r="C57" s="7">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="D57" s="7">
-        <v>3</v>
+        <v>6.41</v>
       </c>
       <c r="E57" s="7">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="F57" s="7">
-        <f>0.014*10^4</f>
-        <v>140</v>
+        <v>855</v>
       </c>
       <c r="G57" s="7">
-        <v>15.6</v>
+        <v>143</v>
       </c>
       <c r="H57" s="7">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="I57" s="7">
-        <v>0.3</v>
+        <v>0.88</v>
       </c>
       <c r="J57" s="5">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="12"/>
@@ -3206,34 +3615,34 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="B58" s="7">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C58" s="7">
         <v>5.3</v>
       </c>
       <c r="D58" s="7">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="E58" s="7">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="F58" s="7">
-        <v>140</v>
+        <v>855</v>
       </c>
       <c r="G58" s="7">
-        <v>6.5</v>
+        <v>130</v>
       </c>
       <c r="H58" s="7">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="I58" s="7">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="J58" s="5">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="12"/>
@@ -3244,34 +3653,34 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="B59" s="7">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C59" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" s="7">
-        <v>9.25</v>
+        <v>5.9</v>
       </c>
       <c r="E59" s="7">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="F59" s="7">
-        <v>140</v>
+        <v>855</v>
       </c>
       <c r="G59" s="7">
-        <v>5.04</v>
+        <v>164</v>
       </c>
       <c r="H59" s="7">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="I59" s="7">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="J59" s="5">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="12"/>
@@ -3282,34 +3691,34 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="B60" s="7">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C60" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D60" s="7">
         <v>6</v>
       </c>
-      <c r="D60" s="7">
-        <v>3.7</v>
-      </c>
       <c r="E60" s="7">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="F60" s="7">
-        <v>140</v>
+        <v>855</v>
       </c>
       <c r="G60" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="H60" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I60" s="7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J60" s="5">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="12"/>
@@ -3320,34 +3729,34 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="B61" s="7">
-        <v>406</v>
+        <v>39</v>
       </c>
       <c r="C61" s="7">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="D61" s="7">
-        <v>10.3</v>
+        <v>6.5</v>
       </c>
       <c r="E61" s="7">
-        <v>0.77</v>
+        <v>0.3</v>
       </c>
       <c r="F61" s="7">
-        <v>140</v>
+        <v>855</v>
       </c>
       <c r="G61" s="7">
-        <v>0.27</v>
+        <v>110</v>
       </c>
       <c r="H61" s="7">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="I61" s="7">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="J61" s="5">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K61" s="7"/>
       <c r="L61" s="12"/>
@@ -3358,34 +3767,34 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="B62" s="7">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C62" s="7">
-        <v>4.9000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="D62" s="7">
-        <v>4.5999999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="E62" s="7">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="F62" s="7">
-        <v>135</v>
+        <v>908</v>
       </c>
       <c r="G62" s="7">
-        <v>11.1</v>
+        <v>86</v>
       </c>
       <c r="H62" s="7">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="I62" s="7">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J62" s="5">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K62" s="7"/>
       <c r="L62" s="12"/>
@@ -3396,34 +3805,34 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B63" s="7">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C63" s="7">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="D63" s="7">
-        <v>5.56</v>
+        <v>5.65</v>
       </c>
       <c r="E63" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="F63" s="7">
-        <v>220</v>
+        <v>908</v>
       </c>
       <c r="G63" s="7">
-        <v>29.6</v>
+        <v>100</v>
       </c>
       <c r="H63" s="7">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="I63" s="7">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J63" s="5">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="12"/>
@@ -3434,34 +3843,34 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="B64" s="7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C64" s="7">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="D64" s="7">
-        <v>2.0499999999999998</v>
+        <v>5.33</v>
       </c>
       <c r="E64" s="7">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F64" s="7">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="G64" s="7">
-        <v>89.1</v>
+        <v>99.5</v>
       </c>
       <c r="H64" s="7">
-        <v>6.7</v>
+        <v>12.5</v>
       </c>
       <c r="I64" s="7">
-        <v>0.5</v>
+        <v>1.48</v>
       </c>
       <c r="J64" s="5">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="12"/>
@@ -3472,34 +3881,34 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="B65" s="7">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C65" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="D65" s="7">
-        <v>7.7</v>
+        <v>4.8</v>
       </c>
       <c r="E65" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.34</v>
       </c>
       <c r="F65" s="7">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="G65" s="7">
-        <v>14.6</v>
+        <v>110</v>
       </c>
       <c r="H65" s="7">
-        <v>5.7</v>
+        <v>12.5</v>
       </c>
       <c r="I65" s="7">
-        <v>0.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J65" s="5">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="12"/>
@@ -3510,34 +3919,34 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="B66" s="7">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C66" s="7">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="D66" s="7">
-        <v>6.83</v>
+        <v>5.8</v>
       </c>
       <c r="E66" s="7">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="F66" s="7">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="G66" s="7">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H66" s="7">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="I66" s="7">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="J66" s="5">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="12"/>
@@ -3548,34 +3957,34 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="B67" s="7">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C67" s="7">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="D67" s="7">
-        <v>6.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E67" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="F67" s="7">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="G67" s="7">
-        <v>11.6</v>
+        <v>110</v>
       </c>
       <c r="H67" s="7">
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="I67" s="7">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="J67" s="5">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K67" s="7"/>
       <c r="L67" s="12"/>
@@ -3586,34 +3995,34 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="B68" s="7">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C68" s="7">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="D68" s="7">
-        <v>3</v>
+        <v>5.55</v>
       </c>
       <c r="E68" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F68" s="7">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="G68" s="7">
-        <v>12.2</v>
+        <v>88</v>
       </c>
       <c r="H68" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I68" s="7">
-        <v>0.5</v>
+        <v>1.64</v>
       </c>
       <c r="J68" s="5">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="12"/>
@@ -3624,34 +4033,34 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="B69" s="7">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C69" s="7">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="D69" s="7">
-        <v>7.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E69" s="7">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="F69" s="7">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="G69" s="7">
+        <v>96</v>
+      </c>
+      <c r="H69" s="7">
         <v>12</v>
       </c>
-      <c r="H69" s="7">
-        <v>3</v>
-      </c>
       <c r="I69" s="7">
-        <v>0.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J69" s="5">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="12"/>
@@ -3662,34 +4071,34 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="B70" s="7">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C70" s="7">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="D70" s="7">
-        <v>14.3</v>
+        <v>5.73</v>
       </c>
       <c r="E70" s="7">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F70" s="7">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="G70" s="7">
-        <v>24.8</v>
+        <v>129.6</v>
       </c>
       <c r="H70" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I70" s="7">
-        <v>0.4</v>
+        <v>1.49</v>
       </c>
       <c r="J70" s="5">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="12"/>
@@ -3700,34 +4109,34 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="B71" s="7">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C71" s="7">
-        <v>5.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D71" s="7">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="E71" s="7">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="F71" s="7">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="G71" s="7">
-        <v>17.7</v>
+        <v>113</v>
       </c>
       <c r="H71" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I71" s="7">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="J71" s="5">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="12"/>
@@ -3738,34 +4147,34 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B72" s="7">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C72" s="7">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="D72" s="7">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="E72" s="7">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="F72" s="7">
-        <v>220</v>
+        <v>1210</v>
       </c>
       <c r="G72" s="7">
-        <v>13.1</v>
+        <v>177</v>
       </c>
       <c r="H72" s="7">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="I72" s="7">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="J72" s="5">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="12"/>
@@ -3776,34 +4185,34 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="B73" s="7">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C73" s="7">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="D73" s="7">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="E73" s="7">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="F73" s="7">
-        <v>220</v>
+        <v>1210</v>
       </c>
       <c r="G73" s="7">
-        <v>14.4</v>
+        <v>168</v>
       </c>
       <c r="H73" s="7">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="I73" s="7">
-        <v>0.9</v>
+        <v>3.85</v>
       </c>
       <c r="J73" s="5">
-        <v>150</v>
+        <v>1700</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="12"/>
@@ -3814,34 +4223,34 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="B74" s="7">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C74" s="7">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="D74" s="7">
-        <v>7.88</v>
+        <v>4.2</v>
       </c>
       <c r="E74" s="7">
-        <v>0.37</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F74" s="7">
-        <v>355</v>
+        <v>1210</v>
       </c>
       <c r="G74" s="7">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="H74" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I74" s="7">
-        <v>1.7</v>
+        <v>0.65</v>
       </c>
       <c r="J74" s="5">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="12"/>
@@ -3852,34 +4261,34 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B75" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C75" s="7">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="D75" s="7">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="E75" s="7">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="F75" s="7">
-        <v>550</v>
+        <v>1210</v>
       </c>
       <c r="G75" s="7">
-        <v>117.3</v>
+        <v>198</v>
       </c>
       <c r="H75" s="7">
-        <v>7.25</v>
+        <v>10</v>
       </c>
       <c r="I75" s="7">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="J75" s="5">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="12"/>
@@ -3890,34 +4299,34 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="B76" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C76" s="7">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="D76" s="7">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="E76" s="7">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="F76" s="7">
-        <v>880</v>
+        <v>1210</v>
       </c>
       <c r="G76" s="7">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="H76" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I76" s="7">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="J76" s="5">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="12"/>
@@ -3928,34 +4337,34 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="6" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="B77" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C77" s="7">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="D77" s="7">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="E77" s="7">
-        <v>0.41</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F77" s="7">
-        <v>550</v>
+        <v>1210</v>
       </c>
       <c r="G77" s="7">
-        <v>103</v>
+        <v>203.5</v>
       </c>
       <c r="H77" s="7">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="I77" s="7">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="J77" s="5">
-        <v>350</v>
+        <v>1199</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="12"/>
@@ -3965,1660 +4374,4425 @@
       <c r="Q77" s="12"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="A78" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="7">
+        <v>31</v>
+      </c>
+      <c r="C78" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D78" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G78" s="7">
+        <v>252</v>
+      </c>
+      <c r="H78" s="7">
+        <v>9</v>
+      </c>
+      <c r="I78" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1200</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="A79" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="7">
+        <v>30</v>
+      </c>
+      <c r="C79" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D79" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G79" s="7">
+        <v>245</v>
+      </c>
+      <c r="H79" s="7">
+        <v>8</v>
+      </c>
+      <c r="I79" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J79" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="A80" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="7">
+        <v>30</v>
+      </c>
+      <c r="C80" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D80" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1134</v>
+      </c>
+      <c r="G80" s="7">
+        <v>297</v>
+      </c>
+      <c r="H80" s="7">
+        <v>8</v>
+      </c>
+      <c r="I80" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J80" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
+      <c r="A81" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="7">
+        <v>42</v>
+      </c>
+      <c r="C81" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D81" s="7">
+        <v>8</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1225</v>
+      </c>
+      <c r="G81" s="7">
+        <v>136</v>
+      </c>
+      <c r="H81" s="7">
+        <v>10</v>
+      </c>
+      <c r="I81" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J81" s="5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="A82" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="7">
+        <v>40</v>
+      </c>
+      <c r="C82" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D82" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1225</v>
+      </c>
+      <c r="G82" s="7">
+        <v>220</v>
+      </c>
+      <c r="H82" s="7">
+        <v>10</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J82" s="5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="A83" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="7">
+        <v>36</v>
+      </c>
+      <c r="C83" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D83" s="7">
+        <v>5.91</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G83" s="7">
+        <v>160</v>
+      </c>
+      <c r="H83" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1.52</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1500</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="A84" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="7">
+        <v>35</v>
+      </c>
+      <c r="C84" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D84" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G84" s="7">
+        <v>180</v>
+      </c>
+      <c r="H84" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="I84" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J84" s="5">
+        <v>1500</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="A85" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="7">
+        <v>34</v>
+      </c>
+      <c r="C85" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="D85" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G85" s="7">
+        <v>149.1</v>
+      </c>
+      <c r="H85" s="7">
+        <v>14</v>
+      </c>
+      <c r="I85" s="7">
+        <v>1.36</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1700</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
+      <c r="A86" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="7">
+        <v>32</v>
+      </c>
+      <c r="C86" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D86" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F86" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G86" s="7">
+        <v>187</v>
+      </c>
+      <c r="H86" s="7">
+        <v>14</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="J86" s="5">
+        <v>1700</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="A87" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="7">
+        <v>33</v>
+      </c>
+      <c r="C87" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D87" s="7">
+        <v>6.23</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G87" s="7">
+        <v>181.5</v>
+      </c>
+      <c r="H87" s="7">
+        <v>12</v>
+      </c>
+      <c r="I87" s="7">
+        <v>1.64</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1500</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="A88" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="7">
+        <v>35</v>
+      </c>
+      <c r="C88" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D88" s="7">
+        <v>8</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F88" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G88" s="7">
+        <v>175</v>
+      </c>
+      <c r="H88" s="7">
+        <v>12</v>
+      </c>
+      <c r="I88" s="7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1500</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="A89" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="7">
+        <v>30</v>
+      </c>
+      <c r="C89" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="D89" s="7">
+        <v>7</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F89" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G89" s="7">
+        <v>256</v>
+      </c>
+      <c r="H89" s="7">
+        <v>9</v>
+      </c>
+      <c r="I89" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="J89" s="5">
+        <v>1200</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="A90" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="7">
+        <v>34</v>
+      </c>
+      <c r="C90" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D90" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F90" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G90" s="7">
+        <v>212</v>
+      </c>
+      <c r="H90" s="7">
+        <v>9</v>
+      </c>
+      <c r="I90" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="J90" s="5">
+        <v>1200</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="A91" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="7">
+        <v>30</v>
+      </c>
+      <c r="C91" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D91" s="7">
+        <v>11</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F91" s="7">
+        <v>1680</v>
+      </c>
+      <c r="G91" s="7">
+        <v>274</v>
+      </c>
+      <c r="H91" s="7">
+        <v>15</v>
+      </c>
+      <c r="I91" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="J91" s="5">
+        <v>1700</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="A92" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="7">
+        <v>30</v>
+      </c>
+      <c r="C92" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D92" s="7">
+        <v>10</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="F92" s="7">
+        <v>1680</v>
+      </c>
+      <c r="G92" s="7">
+        <v>269</v>
+      </c>
+      <c r="H92" s="7">
+        <v>15</v>
+      </c>
+      <c r="I92" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J92" s="5">
+        <v>1700</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
+      <c r="A93" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="7">
+        <v>37</v>
+      </c>
+      <c r="C93" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D93" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F93" s="7">
+        <v>1680</v>
+      </c>
+      <c r="G93" s="7">
+        <v>155</v>
+      </c>
+      <c r="H93" s="7">
+        <v>22</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J93" s="5">
+        <v>2500</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
+      <c r="A94" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="7">
+        <v>33</v>
+      </c>
+      <c r="C94" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="D94" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F94" s="7">
+        <v>1680</v>
+      </c>
+      <c r="G94" s="7">
+        <v>278</v>
+      </c>
+      <c r="H94" s="7">
+        <v>14</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="J94" s="5">
+        <v>1700</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+      <c r="A95" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="7">
+        <v>30</v>
+      </c>
+      <c r="C95" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D95" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F95" s="7">
+        <v>1680</v>
+      </c>
+      <c r="G95" s="7">
+        <v>318</v>
+      </c>
+      <c r="H95" s="7">
+        <v>14</v>
+      </c>
+      <c r="I95" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J95" s="5">
+        <v>1700</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
+      <c r="A96" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="7">
+        <v>32</v>
+      </c>
+      <c r="C96" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="D96" s="7">
+        <v>7</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F96" s="7">
+        <v>1680</v>
+      </c>
+      <c r="G96" s="7">
+        <v>200</v>
+      </c>
+      <c r="H96" s="7">
+        <v>15</v>
+      </c>
+      <c r="I96" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J96" s="5">
+        <v>2000</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+      <c r="A97" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="7">
+        <v>32</v>
+      </c>
+      <c r="C97" s="7">
+        <v>6</v>
+      </c>
+      <c r="D97" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F97" s="7">
+        <v>1680</v>
+      </c>
+      <c r="G97" s="7">
+        <v>200</v>
+      </c>
+      <c r="H97" s="7">
+        <v>15</v>
+      </c>
+      <c r="I97" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J97" s="5">
+        <v>2000</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+      <c r="A98" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="7">
+        <v>165</v>
+      </c>
+      <c r="C98" s="7">
+        <v>7</v>
+      </c>
+      <c r="D98" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="F98" s="7">
+        <v>15</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H98" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J98" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
+      <c r="A99" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="7">
+        <v>82</v>
+      </c>
+      <c r="C99" s="7">
+        <v>12</v>
+      </c>
+      <c r="D99" s="7">
+        <v>14</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F99" s="7">
+        <v>522</v>
+      </c>
+      <c r="G99" s="7">
+        <v>52</v>
+      </c>
+      <c r="H99" s="7">
+        <v>2</v>
+      </c>
+      <c r="I99" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J99" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
+      <c r="A100" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="7">
+        <v>82</v>
+      </c>
+      <c r="C100" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D100" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="F100" s="7">
+        <v>522</v>
+      </c>
+      <c r="G100" s="7">
+        <v>53</v>
+      </c>
+      <c r="H100" s="7">
+        <v>2</v>
+      </c>
+      <c r="I100" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J100" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
+      <c r="A101" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="7">
+        <v>98</v>
+      </c>
+      <c r="C101" s="7">
+        <v>6</v>
+      </c>
+      <c r="D101" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F101" s="7">
+        <v>46</v>
+      </c>
+      <c r="G101" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="H101" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I101" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="J101" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
+      <c r="A102" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="7">
+        <v>110</v>
+      </c>
+      <c r="C102" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D102" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F102" s="7">
+        <v>57</v>
+      </c>
+      <c r="G102" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="H102" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="I102" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="J102" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
+      <c r="A103" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="7">
+        <v>79</v>
+      </c>
+      <c r="C103" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D103" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F103" s="7">
+        <v>57</v>
+      </c>
+      <c r="G103" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="H103" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="J103" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
+      <c r="A104" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="7">
+        <v>70</v>
+      </c>
+      <c r="C104" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="D104" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F104" s="7">
+        <v>92</v>
+      </c>
+      <c r="G104" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H104" s="7">
+        <v>3</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J104" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
+      <c r="A105" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="7">
+        <v>63</v>
+      </c>
+      <c r="C105" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D105" s="7">
+        <v>10</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F105" s="7">
+        <v>95</v>
+      </c>
+      <c r="G105" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="H105" s="7">
+        <v>3</v>
+      </c>
+      <c r="I105" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J105" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
+      <c r="A106" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="7">
+        <v>230</v>
+      </c>
+      <c r="C106" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="D106" s="7">
+        <v>3</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F106" s="7">
+        <v>95</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H106" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I106" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J106" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
+      <c r="A107" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="7">
+        <v>240</v>
+      </c>
+      <c r="C107" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D107" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="F107" s="7">
+        <v>95</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H107" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I107" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J107" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
+      <c r="A108" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="7">
+        <v>80</v>
+      </c>
+      <c r="C108" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D108" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F108" s="7">
+        <v>95</v>
+      </c>
+      <c r="G108" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H108" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="J108" s="5">
+        <v>90</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
+      <c r="A109" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="7">
+        <v>115</v>
+      </c>
+      <c r="C109" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="D109" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F109" s="7">
+        <v>132</v>
+      </c>
+      <c r="G109" s="7">
+        <v>4</v>
+      </c>
+      <c r="H109" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I109" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="J109" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
+      <c r="A110" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="7">
+        <v>113</v>
+      </c>
+      <c r="C110" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D110" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F110" s="7">
+        <v>132</v>
+      </c>
+      <c r="G110" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H110" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I110" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J110" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="A111" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="7">
+        <v>150</v>
+      </c>
+      <c r="C111" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="D111" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="E111" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F111" s="7">
+        <v>132</v>
+      </c>
+      <c r="G111" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H111" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J111" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" s="6"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
+      <c r="A112" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="7">
+        <v>130</v>
+      </c>
+      <c r="C112" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="D112" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F112" s="7">
+        <v>132</v>
+      </c>
+      <c r="G112" s="7">
+        <v>3</v>
+      </c>
+      <c r="H112" s="7">
+        <v>2</v>
+      </c>
+      <c r="I112" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J112" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
+      <c r="A113" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="7">
+        <v>138</v>
+      </c>
+      <c r="C113" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="D113" s="7">
+        <v>3</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F113" s="7">
+        <v>132</v>
+      </c>
+      <c r="G113" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="H113" s="7">
+        <v>3</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J113" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
+      <c r="A114" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="7">
+        <v>140</v>
+      </c>
+      <c r="C114" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D114" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F114" s="7">
+        <v>132</v>
+      </c>
+      <c r="G114" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="H114" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I114" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="J114" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
+      <c r="A115" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="7">
+        <v>70</v>
+      </c>
+      <c r="C115" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="D115" s="7">
+        <v>10.29</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F115" s="7">
+        <v>132</v>
+      </c>
+      <c r="G115" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="H115" s="7">
+        <v>6</v>
+      </c>
+      <c r="I115" s="7">
+        <v>1</v>
+      </c>
+      <c r="J115" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" s="6"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
+      <c r="A116" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="7">
+        <v>69</v>
+      </c>
+      <c r="C116" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="D116" s="7">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F116" s="7">
+        <v>132</v>
+      </c>
+      <c r="G116" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="H116" s="7">
+        <v>6</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J116" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
+      <c r="A117" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="7">
+        <v>72</v>
+      </c>
+      <c r="C117" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D117" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F117" s="7">
+        <v>132</v>
+      </c>
+      <c r="G117" s="7">
+        <v>7</v>
+      </c>
+      <c r="H117" s="7">
+        <v>6</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J117" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" s="6"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
+      <c r="A118" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="7">
+        <v>126</v>
+      </c>
+      <c r="C118" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D118" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F118" s="7">
+        <v>132</v>
+      </c>
+      <c r="G118" s="7">
+        <v>6</v>
+      </c>
+      <c r="H118" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I118" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J118" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
+      <c r="A119" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="7">
+        <v>75</v>
+      </c>
+      <c r="C119" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D119" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F119" s="7">
+        <v>132</v>
+      </c>
+      <c r="G119" s="7">
+        <v>8</v>
+      </c>
+      <c r="H119" s="7">
+        <v>6</v>
+      </c>
+      <c r="I119" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J119" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
+      <c r="A120" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="7">
+        <v>71</v>
+      </c>
+      <c r="C120" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D120" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F120" s="7">
+        <v>132</v>
+      </c>
+      <c r="G120" s="7">
+        <v>7</v>
+      </c>
+      <c r="H120" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I120" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J120" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+      <c r="A121" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="7">
+        <v>52</v>
+      </c>
+      <c r="C121" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D121" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F121" s="7">
+        <v>220</v>
+      </c>
+      <c r="G121" s="7">
+        <v>18</v>
+      </c>
+      <c r="H121" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="I121" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J121" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
+      <c r="A122" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="7">
+        <v>83</v>
+      </c>
+      <c r="C122" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="D122" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="F122" s="7">
+        <v>220</v>
+      </c>
+      <c r="G122" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="H122" s="7">
+        <v>6</v>
+      </c>
+      <c r="I122" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J122" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
+      <c r="A123" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="7">
+        <v>69</v>
+      </c>
+      <c r="C123" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D123" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="E123" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F123" s="7">
+        <v>220</v>
+      </c>
+      <c r="G123" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="H123" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="I123" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J123" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A124" s="6"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
+      <c r="A124" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" s="7">
+        <v>49</v>
+      </c>
+      <c r="C124" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D124" s="7">
+        <v>9</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F124" s="7">
+        <v>220</v>
+      </c>
+      <c r="G124" s="7">
+        <v>20</v>
+      </c>
+      <c r="H124" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="I124" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J124" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
+      <c r="A125" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="7">
+        <v>53</v>
+      </c>
+      <c r="C125" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="D125" s="7">
+        <v>9.33</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F125" s="7">
+        <v>220</v>
+      </c>
+      <c r="G125" s="7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H125" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I125" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="J125" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
+      <c r="A126" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" s="7">
+        <v>51</v>
+      </c>
+      <c r="C126" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D126" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F126" s="7">
+        <v>220</v>
+      </c>
+      <c r="G126" s="7">
+        <v>15</v>
+      </c>
+      <c r="H126" s="7">
+        <v>7</v>
+      </c>
+      <c r="I126" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="J126" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A127" s="6"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
+      <c r="A127" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" s="7">
+        <v>74</v>
+      </c>
+      <c r="C127" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D127" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="F127" s="7">
+        <v>220</v>
+      </c>
+      <c r="G127" s="7">
+        <v>12</v>
+      </c>
+      <c r="H127" s="7">
+        <v>6</v>
+      </c>
+      <c r="I127" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J127" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" s="6"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
+      <c r="A128" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" s="7">
+        <v>68</v>
+      </c>
+      <c r="C128" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D128" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="F128" s="7">
+        <v>220</v>
+      </c>
+      <c r="G128" s="7">
+        <v>22</v>
+      </c>
+      <c r="H128" s="7">
+        <v>6</v>
+      </c>
+      <c r="I128" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="J128" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
+      <c r="A129" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="7">
+        <v>60</v>
+      </c>
+      <c r="C129" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D129" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F129" s="7">
+        <v>220</v>
+      </c>
+      <c r="G129" s="7">
+        <v>23</v>
+      </c>
+      <c r="H129" s="7">
+        <v>6</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J129" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
+      <c r="A130" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130" s="7">
+        <v>68</v>
+      </c>
+      <c r="C130" s="7">
+        <v>10</v>
+      </c>
+      <c r="D130" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="E130" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F130" s="7">
+        <v>220</v>
+      </c>
+      <c r="G130" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="H130" s="7">
+        <v>6</v>
+      </c>
+      <c r="I130" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="J130" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
+      <c r="A131" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" s="7">
+        <v>70</v>
+      </c>
+      <c r="C131" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D131" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="E131" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="F131" s="7">
+        <v>220</v>
+      </c>
+      <c r="G131" s="7">
+        <v>16</v>
+      </c>
+      <c r="H131" s="7">
+        <v>6</v>
+      </c>
+      <c r="I131" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J131" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" s="6"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
+      <c r="A132" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132" s="7">
+        <v>70</v>
+      </c>
+      <c r="C132" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="D132" s="7">
+        <v>5.88</v>
+      </c>
+      <c r="E132" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="F132" s="7">
+        <v>220</v>
+      </c>
+      <c r="G132" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="H132" s="7">
+        <v>7</v>
+      </c>
+      <c r="I132" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J132" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A133" s="6"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
+      <c r="A133" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="7">
+        <v>75</v>
+      </c>
+      <c r="C133" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="D133" s="7">
+        <v>5.22</v>
+      </c>
+      <c r="E133" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F133" s="7">
+        <v>220</v>
+      </c>
+      <c r="G133" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="H133" s="7">
+        <v>7</v>
+      </c>
+      <c r="I133" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J133" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A134" s="6"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
+      <c r="A134" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" s="7">
+        <v>66</v>
+      </c>
+      <c r="C134" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D134" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F134" s="7">
+        <v>220</v>
+      </c>
+      <c r="G134" s="7">
+        <v>14</v>
+      </c>
+      <c r="H134" s="7">
+        <v>7</v>
+      </c>
+      <c r="I134" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J134" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" s="6"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
+      <c r="A135" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" s="7">
+        <v>73</v>
+      </c>
+      <c r="C135" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="D135" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="E135" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F135" s="7">
+        <v>220</v>
+      </c>
+      <c r="G135" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="H135" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I135" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="J135" s="5">
+        <v>350</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" s="6"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
+      <c r="A136" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B136" s="7">
+        <v>80</v>
+      </c>
+      <c r="C136" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D136" s="7">
+        <v>10.91</v>
+      </c>
+      <c r="E136" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F136" s="7">
+        <v>220</v>
+      </c>
+      <c r="G136" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="H136" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I136" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="J136" s="5">
+        <v>350</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+      <c r="A137" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B137" s="7">
+        <v>68</v>
+      </c>
+      <c r="C137" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="D137" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="E137" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="F137" s="7">
+        <v>220</v>
+      </c>
+      <c r="G137" s="7">
+        <v>14</v>
+      </c>
+      <c r="H137" s="7">
+        <v>7</v>
+      </c>
+      <c r="I137" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J137" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" s="6"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
+      <c r="A138" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" s="7">
+        <v>76</v>
+      </c>
+      <c r="C138" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="D138" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E138" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F138" s="7">
+        <v>220</v>
+      </c>
+      <c r="G138" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="H138" s="7">
+        <v>6</v>
+      </c>
+      <c r="I138" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J138" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A139" s="6"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
+      <c r="A139" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" s="7">
+        <v>74</v>
+      </c>
+      <c r="C139" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D139" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="E139" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="F139" s="7">
+        <v>220</v>
+      </c>
+      <c r="G139" s="7">
+        <v>11</v>
+      </c>
+      <c r="H139" s="7">
+        <v>6</v>
+      </c>
+      <c r="I139" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J139" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A140" s="6"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
+      <c r="A140" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B140" s="7">
+        <v>87</v>
+      </c>
+      <c r="C140" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D140" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="E140" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F140" s="7">
+        <v>220</v>
+      </c>
+      <c r="G140" s="7">
+        <v>13</v>
+      </c>
+      <c r="H140" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I140" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J140" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
+      <c r="A141" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" s="7">
+        <v>73</v>
+      </c>
+      <c r="C141" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="E141" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="F141" s="7">
+        <v>220</v>
+      </c>
+      <c r="G141" s="7">
+        <v>14</v>
+      </c>
+      <c r="H141" s="7">
+        <v>5</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J141" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
+      <c r="A142" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" s="7">
+        <v>31</v>
+      </c>
+      <c r="C142" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="D142" s="7">
+        <v>3.29</v>
+      </c>
+      <c r="E142" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F142" s="7">
+        <f>0.038*10^4</f>
+        <v>380</v>
+      </c>
+      <c r="G142" s="7">
+        <v>108.2</v>
+      </c>
+      <c r="H142" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="I142" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J142" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
+      <c r="A143" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" s="7">
+        <v>52</v>
+      </c>
+      <c r="C143" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="D143" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="F143" s="7">
+        <v>380</v>
+      </c>
+      <c r="G143" s="7">
+        <v>44</v>
+      </c>
+      <c r="H143" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J143" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A144" s="6"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
+      <c r="A144" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B144" s="7">
+        <v>45</v>
+      </c>
+      <c r="C144" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D144" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F144" s="7">
+        <v>380</v>
+      </c>
+      <c r="G144" s="7">
+        <v>49</v>
+      </c>
+      <c r="H144" s="7">
+        <v>7</v>
+      </c>
+      <c r="I144" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J144" s="5">
+        <v>400</v>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A145" s="6"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
+      <c r="A145" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" s="7">
+        <v>60</v>
+      </c>
+      <c r="C145" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="D145" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F145" s="7">
+        <v>350</v>
+      </c>
+      <c r="G145" s="7">
+        <v>26</v>
+      </c>
+      <c r="H145" s="7">
+        <v>8</v>
+      </c>
+      <c r="I145" s="7">
+        <v>1</v>
+      </c>
+      <c r="J145" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A146" s="6"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
+      <c r="A146" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" s="7">
+        <v>63</v>
+      </c>
+      <c r="C146" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D146" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="F146" s="7">
+        <v>350</v>
+      </c>
+      <c r="G146" s="7">
+        <v>20</v>
+      </c>
+      <c r="H146" s="7">
+        <v>7</v>
+      </c>
+      <c r="I146" s="7">
+        <v>1</v>
+      </c>
+      <c r="J146" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
+      <c r="A147" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147" s="7">
+        <v>260</v>
+      </c>
+      <c r="C147" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D147" s="7">
+        <v>22</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F147" s="7">
+        <v>380</v>
+      </c>
+      <c r="G147" s="7">
+        <v>2</v>
+      </c>
+      <c r="H147" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I147" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J147" s="5">
+        <v>400</v>
+      </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A148" s="6"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
+      <c r="A148" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B148" s="7">
+        <v>70</v>
+      </c>
+      <c r="C148" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="D148" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E148" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F148" s="7">
+        <v>350</v>
+      </c>
+      <c r="G148" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="H148" s="7">
+        <v>8</v>
+      </c>
+      <c r="I148" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J148" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A149" s="6"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
+      <c r="A149" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B149" s="7">
+        <v>50</v>
+      </c>
+      <c r="C149" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="D149" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="E149" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F149" s="7">
+        <v>380</v>
+      </c>
+      <c r="G149" s="7">
+        <v>54</v>
+      </c>
+      <c r="H149" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I149" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J149" s="5">
+        <v>350</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A150" s="6"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
+      <c r="A150" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" s="7">
+        <v>47</v>
+      </c>
+      <c r="C150" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="D150" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="E150" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F150" s="7">
+        <v>350</v>
+      </c>
+      <c r="G150" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="H150" s="7">
+        <v>6</v>
+      </c>
+      <c r="I150" s="7">
+        <v>1</v>
+      </c>
+      <c r="J150" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
+      <c r="A151" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" s="7">
+        <v>52</v>
+      </c>
+      <c r="C151" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="D151" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="E151" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F151" s="7">
+        <v>350</v>
+      </c>
+      <c r="G151" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H151" s="7">
+        <v>6</v>
+      </c>
+      <c r="I151" s="7">
+        <v>1</v>
+      </c>
+      <c r="J151" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A152" s="6"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
+      <c r="A152" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" s="7">
+        <v>31</v>
+      </c>
+      <c r="C152" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D152" s="7">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E152" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F152" s="7">
+        <v>540</v>
+      </c>
+      <c r="G152" s="7">
+        <v>142</v>
+      </c>
+      <c r="H152" s="7">
+        <v>8</v>
+      </c>
+      <c r="I152" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="J152" s="5">
+        <v>125</v>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A153" s="6"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
+      <c r="A153" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" s="7">
+        <v>49</v>
+      </c>
+      <c r="C153" s="7">
+        <v>6</v>
+      </c>
+      <c r="D153" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="E153" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="F153" s="7">
+        <v>530</v>
+      </c>
+      <c r="G153" s="7">
+        <v>76</v>
+      </c>
+      <c r="H153" s="7">
+        <v>7</v>
+      </c>
+      <c r="I153" s="7">
+        <v>1</v>
+      </c>
+      <c r="J153" s="5">
+        <v>320</v>
+      </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A154" s="6"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
+      <c r="A154" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154" s="7">
+        <v>44</v>
+      </c>
+      <c r="C154" s="7">
+        <v>6</v>
+      </c>
+      <c r="D154" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F154" s="7">
+        <v>530</v>
+      </c>
+      <c r="G154" s="7">
+        <v>81</v>
+      </c>
+      <c r="H154" s="7">
+        <v>5</v>
+      </c>
+      <c r="I154" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J154" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A155" s="6"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
+      <c r="A155" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155" s="7">
+        <v>90</v>
+      </c>
+      <c r="C155" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D155" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="E155" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="F155" s="7">
+        <v>530</v>
+      </c>
+      <c r="G155" s="7">
+        <v>34</v>
+      </c>
+      <c r="H155" s="7">
+        <v>3</v>
+      </c>
+      <c r="I155" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J155" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A156" s="6"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
+      <c r="A156" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" s="7">
+        <v>49</v>
+      </c>
+      <c r="C156" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D156" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="E156" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F156" s="7">
+        <v>550</v>
+      </c>
+      <c r="G156" s="7">
+        <v>43</v>
+      </c>
+      <c r="H156" s="7">
+        <v>9</v>
+      </c>
+      <c r="I156" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J156" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A157" s="6"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
+      <c r="A157" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157" s="7">
+        <v>57</v>
+      </c>
+      <c r="C157" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D157" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="E157" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F157" s="7">
+        <v>550</v>
+      </c>
+      <c r="G157" s="7">
+        <v>54.9</v>
+      </c>
+      <c r="H157" s="7">
+        <v>8</v>
+      </c>
+      <c r="I157" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J157" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A158" s="6"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
+      <c r="A158" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B158" s="7">
+        <v>51</v>
+      </c>
+      <c r="C158" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D158" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E158" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F158" s="7">
+        <v>550</v>
+      </c>
+      <c r="G158" s="7">
+        <v>58</v>
+      </c>
+      <c r="H158" s="7">
+        <v>7</v>
+      </c>
+      <c r="I158" s="7">
+        <v>1</v>
+      </c>
+      <c r="J158" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A159" s="6"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
+      <c r="A159" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B159" s="7">
+        <v>62</v>
+      </c>
+      <c r="C159" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="D159" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="E159" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F159" s="7">
+        <v>550</v>
+      </c>
+      <c r="G159" s="7">
+        <v>44</v>
+      </c>
+      <c r="H159" s="7">
+        <v>8</v>
+      </c>
+      <c r="I159" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J159" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A160" s="6"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
+      <c r="A160" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B160" s="7">
+        <v>58</v>
+      </c>
+      <c r="C160" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="D160" s="7">
+        <v>5.54</v>
+      </c>
+      <c r="E160" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="F160" s="7">
+        <v>530</v>
+      </c>
+      <c r="G160" s="7">
+        <v>64</v>
+      </c>
+      <c r="H160" s="7">
+        <v>2</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1</v>
+      </c>
+      <c r="J160" s="5">
+        <v>450</v>
+      </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A161" s="6"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
+      <c r="A161" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B161" s="7">
+        <v>47</v>
+      </c>
+      <c r="C161" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D161" s="7">
+        <v>7.89</v>
+      </c>
+      <c r="E161" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F161" s="7">
+        <v>550</v>
+      </c>
+      <c r="G161" s="7">
+        <v>49</v>
+      </c>
+      <c r="H161" s="7">
+        <v>8</v>
+      </c>
+      <c r="I161" s="7">
+        <v>2</v>
+      </c>
+      <c r="J161" s="5">
+        <v>900</v>
+      </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A162" s="6"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
+      <c r="A162" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B162" s="7">
+        <v>48</v>
+      </c>
+      <c r="C162" s="7">
+        <v>5</v>
+      </c>
+      <c r="D162" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="E162" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F162" s="7">
+        <v>550</v>
+      </c>
+      <c r="G162" s="7">
+        <v>61</v>
+      </c>
+      <c r="H162" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I162" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J162" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A163" s="6"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
+      <c r="A163" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B163" s="7">
+        <v>47</v>
+      </c>
+      <c r="C163" s="7">
+        <v>5</v>
+      </c>
+      <c r="D163" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="E163" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F163" s="7">
+        <v>550</v>
+      </c>
+      <c r="G163" s="7">
+        <v>65</v>
+      </c>
+      <c r="H163" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I163" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J163" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A164" s="6"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
+      <c r="A164" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B164" s="7">
+        <v>45</v>
+      </c>
+      <c r="C164" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D164" s="7">
+        <v>12.07</v>
+      </c>
+      <c r="E164" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F164" s="7">
+        <v>550</v>
+      </c>
+      <c r="G164" s="7">
+        <v>45</v>
+      </c>
+      <c r="H164" s="7">
+        <v>10</v>
+      </c>
+      <c r="I164" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="J164" s="5">
+        <v>1200</v>
+      </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A165" s="6"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
+      <c r="A165" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B165" s="7">
+        <v>44</v>
+      </c>
+      <c r="C165" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D165" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="E165" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F165" s="7">
+        <v>530</v>
+      </c>
+      <c r="G165" s="7">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="H165" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I165" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="J165" s="5">
+        <v>400</v>
+      </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A166" s="6"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
+      <c r="A166" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B166" s="7">
+        <v>49</v>
+      </c>
+      <c r="C166" s="7">
+        <v>6</v>
+      </c>
+      <c r="D166" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E166" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F166" s="7">
+        <v>880</v>
+      </c>
+      <c r="G166" s="7">
+        <v>104</v>
+      </c>
+      <c r="H166" s="7">
+        <v>7</v>
+      </c>
+      <c r="I166" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J166" s="5">
+        <v>350</v>
+      </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A167" s="6"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
+      <c r="A167" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="7">
+        <v>42</v>
+      </c>
+      <c r="C167" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D167" s="7">
+        <v>21.2</v>
+      </c>
+      <c r="E167" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F167" s="7">
+        <v>910</v>
+      </c>
+      <c r="G167" s="7">
+        <v>105</v>
+      </c>
+      <c r="H167" s="7">
+        <v>9</v>
+      </c>
+      <c r="I167" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J167" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A168" s="6"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
+      <c r="A168" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B168" s="7">
+        <v>46</v>
+      </c>
+      <c r="C168" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="D168" s="7">
+        <v>8</v>
+      </c>
+      <c r="E168" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F168" s="7">
+        <v>880</v>
+      </c>
+      <c r="G168" s="7">
+        <v>131.5</v>
+      </c>
+      <c r="H168" s="7">
+        <v>8</v>
+      </c>
+      <c r="I168" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J168" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A169" s="6"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
+      <c r="A169" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B169" s="7">
+        <v>44</v>
+      </c>
+      <c r="C169" s="7">
+        <v>6</v>
+      </c>
+      <c r="D169" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E169" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F169" s="7">
+        <v>880</v>
+      </c>
+      <c r="G169" s="7">
+        <v>148</v>
+      </c>
+      <c r="H169" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I169" s="7">
+        <v>1</v>
+      </c>
+      <c r="J169" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A170" s="6"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
+      <c r="A170" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B170" s="7">
+        <v>49</v>
+      </c>
+      <c r="C170" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D170" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="E170" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F170" s="7">
+        <v>880</v>
+      </c>
+      <c r="G170" s="7">
+        <v>105</v>
+      </c>
+      <c r="H170" s="7">
+        <v>7</v>
+      </c>
+      <c r="I170" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J170" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A171" s="6"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
+      <c r="A171" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B171" s="7">
+        <v>46</v>
+      </c>
+      <c r="C171" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D171" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="E171" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F171" s="7">
+        <v>880</v>
+      </c>
+      <c r="G171" s="7">
+        <v>133.5</v>
+      </c>
+      <c r="H171" s="7">
+        <v>8</v>
+      </c>
+      <c r="I171" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J171" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A172" s="6"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
+      <c r="A172" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B172" s="7">
+        <v>37</v>
+      </c>
+      <c r="C172" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D172" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="E172" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F172" s="7">
+        <v>880</v>
+      </c>
+      <c r="G172" s="7">
+        <v>264</v>
+      </c>
+      <c r="H172" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I172" s="7">
+        <v>1</v>
+      </c>
+      <c r="J172" s="5">
+        <v>450</v>
+      </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A173" s="6"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
+      <c r="A173" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" s="7">
+        <v>45</v>
+      </c>
+      <c r="C173" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D173" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="E173" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F173" s="7">
+        <v>855</v>
+      </c>
+      <c r="G173" s="7">
+        <v>80.7</v>
+      </c>
+      <c r="H173" s="7">
+        <v>8</v>
+      </c>
+      <c r="I173" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J173" s="5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A174" s="6"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
+      <c r="A174" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B174" s="7">
+        <v>32</v>
+      </c>
+      <c r="C174" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D174" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="E174" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="F174" s="7">
+        <v>880</v>
+      </c>
+      <c r="G174" s="7">
+        <v>305</v>
+      </c>
+      <c r="H174" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I174" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J174" s="5">
+        <v>800</v>
+      </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A175" s="6"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
+      <c r="A175" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B175" s="7">
+        <v>39</v>
+      </c>
+      <c r="C175" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D175" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E175" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F175" s="7">
+        <v>880</v>
+      </c>
+      <c r="G175" s="7">
+        <v>184</v>
+      </c>
+      <c r="H175" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I175" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J175" s="5">
+        <v>800</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A176" s="6"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
+      <c r="A176" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" s="7">
+        <v>36</v>
+      </c>
+      <c r="C176" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D176" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E176" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F176" s="7">
+        <v>880</v>
+      </c>
+      <c r="G176" s="7">
+        <v>224</v>
+      </c>
+      <c r="H176" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I176" s="7">
+        <v>1</v>
+      </c>
+      <c r="J176" s="5">
+        <v>400</v>
+      </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A177" s="6"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
+      <c r="A177" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="7">
+        <v>35</v>
+      </c>
+      <c r="C177" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D177" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="E177" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F177" s="7">
+        <v>880</v>
+      </c>
+      <c r="G177" s="7">
+        <v>233</v>
+      </c>
+      <c r="H177" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I177" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J177" s="5">
+        <v>400</v>
+      </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A178" s="6"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
+      <c r="A178" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B178" s="7">
+        <v>33</v>
+      </c>
+      <c r="C178" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D178" s="7">
+        <v>7</v>
+      </c>
+      <c r="E178" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F178" s="7">
+        <v>1320</v>
+      </c>
+      <c r="G178" s="7">
+        <v>290</v>
+      </c>
+      <c r="H178" s="7">
+        <v>10</v>
+      </c>
+      <c r="I178" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="J178" s="5">
+        <v>900</v>
+      </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A179" s="6"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
+      <c r="A179" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B179" s="7">
+        <v>33</v>
+      </c>
+      <c r="C179" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D179" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="E179" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F179" s="7">
+        <v>1255</v>
+      </c>
+      <c r="G179" s="7">
+        <v>231</v>
+      </c>
+      <c r="H179" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="I179" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="J179" s="5">
+        <v>1600</v>
+      </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A180" s="6"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
+      <c r="A180" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180" s="7">
+        <v>35</v>
+      </c>
+      <c r="C180" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D180" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="E180" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F180" s="7">
+        <v>1320</v>
+      </c>
+      <c r="G180" s="7">
+        <v>236</v>
+      </c>
+      <c r="H180" s="7">
+        <v>9</v>
+      </c>
+      <c r="I180" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J180" s="5">
+        <v>700</v>
+      </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A181" s="6"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
+      <c r="A181" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B181" s="7">
+        <v>33</v>
+      </c>
+      <c r="C181" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D181" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="E181" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F181" s="7">
+        <v>1250</v>
+      </c>
+      <c r="G181" s="7">
+        <v>230</v>
+      </c>
+      <c r="H181" s="7">
+        <v>8</v>
+      </c>
+      <c r="I181" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="J181" s="5">
+        <v>1200</v>
+      </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A182" s="6"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
+      <c r="A182" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B182" s="7">
+        <v>37</v>
+      </c>
+      <c r="C182" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D182" s="7">
+        <v>10.39</v>
+      </c>
+      <c r="E182" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F182" s="7">
+        <v>1225</v>
+      </c>
+      <c r="G182" s="7">
+        <v>198</v>
+      </c>
+      <c r="H182" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="I182" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J182" s="5">
+        <v>1200</v>
+      </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A183" s="6"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
+      <c r="A183" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B183" s="7">
+        <v>32</v>
+      </c>
+      <c r="C183" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D183" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E183" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F183" s="7">
+        <v>1255</v>
+      </c>
+      <c r="G183" s="7">
+        <v>228.9</v>
+      </c>
+      <c r="H183" s="7">
+        <v>10</v>
+      </c>
+      <c r="I183" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J183" s="5">
+        <v>1400</v>
+      </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A184" s="6"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
+      <c r="A184" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B184" s="7">
+        <v>27</v>
+      </c>
+      <c r="C184" s="7">
+        <v>6</v>
+      </c>
+      <c r="D184" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E184" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F184" s="7">
+        <v>1255</v>
+      </c>
+      <c r="G184" s="7">
+        <v>317</v>
+      </c>
+      <c r="H184" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="I184" s="7">
+        <v>2</v>
+      </c>
+      <c r="J184" s="5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A185" s="6"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
+      <c r="A185" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B185" s="7">
+        <v>32</v>
+      </c>
+      <c r="C185" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D185" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="E185" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F185" s="7">
+        <v>1255</v>
+      </c>
+      <c r="G185" s="7">
+        <v>372</v>
+      </c>
+      <c r="H185" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="I185" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J185" s="5">
+        <v>600</v>
+      </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A186" s="6"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
+      <c r="A186" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B186" s="7">
+        <v>30</v>
+      </c>
+      <c r="C186" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D186" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E186" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1734</v>
+      </c>
+      <c r="G186" s="7">
+        <v>394</v>
+      </c>
+      <c r="H186" s="7">
+        <v>13</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="J186" s="5">
+        <v>1600</v>
+      </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A187" s="6"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
+      <c r="A187" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187" s="7">
+        <v>160</v>
+      </c>
+      <c r="C187" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D187" s="7">
+        <v>8</v>
+      </c>
+      <c r="E187" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="F187" s="7">
+        <f>0.003*10^4</f>
+        <v>30</v>
+      </c>
+      <c r="G187" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="H187" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I187" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J187" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A188" s="6"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
+      <c r="A188" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B188" s="7">
+        <v>180</v>
+      </c>
+      <c r="C188" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D188" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F188" s="7">
+        <v>30</v>
+      </c>
+      <c r="G188" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H188" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I188" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J188" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A189" s="6"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
+      <c r="A189" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B189" s="7">
+        <v>92</v>
+      </c>
+      <c r="C189" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="D189" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="E189" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F189" s="7">
+        <f>0.0055*10^4</f>
+        <v>55</v>
+      </c>
+      <c r="G189" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="H189" s="7">
+        <v>3</v>
+      </c>
+      <c r="I189" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J189" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A190" s="6"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
+      <c r="A190" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B190" s="7">
+        <v>94</v>
+      </c>
+      <c r="C190" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="D190" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="E190" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F190" s="7">
+        <f>0.0055*10^4</f>
+        <v>55</v>
+      </c>
+      <c r="G190" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="H190" s="7">
+        <v>3</v>
+      </c>
+      <c r="I190" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J190" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A191" s="6"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
+      <c r="A191" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B191" s="7">
+        <v>140</v>
+      </c>
+      <c r="C191" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D191" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="E191" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F191" s="7">
+        <v>85</v>
+      </c>
+      <c r="G191" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="H191" s="7">
+        <v>3</v>
+      </c>
+      <c r="I191" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J191" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A192" s="6"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
+      <c r="A192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B192" s="7">
+        <v>63</v>
+      </c>
+      <c r="C192" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D192" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E192" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F192" s="7">
+        <v>85</v>
+      </c>
+      <c r="G192" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="H192" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="I192" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J192" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A193" s="6"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
+      <c r="A193" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B193" s="7">
+        <v>72</v>
+      </c>
+      <c r="C193" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D193" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="E193" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F193" s="7">
+        <v>95</v>
+      </c>
+      <c r="G193" s="7">
+        <v>5.69</v>
+      </c>
+      <c r="H193" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="I193" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J193" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A194" s="6"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
+      <c r="A194" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B194" s="7">
+        <v>78</v>
+      </c>
+      <c r="C194" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D194" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="E194" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F194" s="7">
+        <v>95</v>
+      </c>
+      <c r="G194" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="H194" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="I194" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J194" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A195" s="6"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
+      <c r="A195" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B195" s="7">
+        <v>56</v>
+      </c>
+      <c r="C195" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D195" s="7">
+        <v>3</v>
+      </c>
+      <c r="E195" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F195" s="7">
+        <f>0.014*10^4</f>
+        <v>140</v>
+      </c>
+      <c r="G195" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="H195" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="I195" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J195" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A196" s="6"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="7"/>
+      <c r="A196" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B196" s="7">
+        <v>90</v>
+      </c>
+      <c r="C196" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D196" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="E196" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F196" s="7">
+        <v>140</v>
+      </c>
+      <c r="G196" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H196" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="I196" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J196" s="5">
+        <v>220</v>
+      </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A197" s="6"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
+      <c r="A197" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B197" s="7">
+        <v>102</v>
+      </c>
+      <c r="C197" s="7">
+        <v>6</v>
+      </c>
+      <c r="D197" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E197" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F197" s="7">
+        <v>140</v>
+      </c>
+      <c r="G197" s="7">
+        <v>5.04</v>
+      </c>
+      <c r="H197" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="I197" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J197" s="5">
+        <v>170</v>
+      </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A198" s="6"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
+      <c r="A198" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B198" s="7">
+        <v>85</v>
+      </c>
+      <c r="C198" s="7">
+        <v>6</v>
+      </c>
+      <c r="D198" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="E198" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="F198" s="7">
+        <v>140</v>
+      </c>
+      <c r="G198" s="7">
+        <v>7</v>
+      </c>
+      <c r="H198" s="7">
+        <v>3</v>
+      </c>
+      <c r="I198" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J198" s="5">
+        <v>170</v>
+      </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A199" s="6"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
+      <c r="A199" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B199" s="7">
+        <v>406</v>
+      </c>
+      <c r="C199" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D199" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="E199" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="F199" s="7">
+        <v>140</v>
+      </c>
+      <c r="G199" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="H199" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I199" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J199" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A200" s="6"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
+      <c r="A200" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200" s="7">
+        <v>58</v>
+      </c>
+      <c r="C200" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D200" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E200" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F200" s="7">
+        <v>135</v>
+      </c>
+      <c r="G200" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="H200" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="I200" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J200" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A201" s="6"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
+      <c r="A201" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B201" s="7">
+        <v>52</v>
+      </c>
+      <c r="C201" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D201" s="7">
+        <v>5.56</v>
+      </c>
+      <c r="E201" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F201" s="7">
+        <v>220</v>
+      </c>
+      <c r="G201" s="7">
+        <v>29.6</v>
+      </c>
+      <c r="H201" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="I201" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J201" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A202" s="6"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
-      <c r="G202" s="7"/>
-      <c r="H202" s="7"/>
-      <c r="I202" s="7"/>
-      <c r="J202" s="7"/>
+      <c r="A202" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B202" s="7">
+        <v>30</v>
+      </c>
+      <c r="C202" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D202" s="7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E202" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="F202" s="7">
+        <v>220</v>
+      </c>
+      <c r="G202" s="7">
+        <v>89.1</v>
+      </c>
+      <c r="H202" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="I202" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J202" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A203" s="6"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
-      <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
+      <c r="A203" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B203" s="7">
+        <v>75</v>
+      </c>
+      <c r="C203" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D203" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="E203" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F203" s="7">
+        <v>220</v>
+      </c>
+      <c r="G203" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="H203" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="I203" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J203" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A204" s="6"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
+      <c r="A204" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B204" s="7">
+        <v>70</v>
+      </c>
+      <c r="C204" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="D204" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="E204" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F204" s="7">
+        <v>220</v>
+      </c>
+      <c r="G204" s="7">
+        <v>17</v>
+      </c>
+      <c r="H204" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I204" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="J204" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A205" s="6"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="7"/>
-      <c r="I205" s="7"/>
-      <c r="J205" s="7"/>
+      <c r="A205" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205" s="7">
+        <v>76</v>
+      </c>
+      <c r="C205" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D205" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E205" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F205" s="7">
+        <v>220</v>
+      </c>
+      <c r="G205" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="H205" s="7">
+        <v>6</v>
+      </c>
+      <c r="I205" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J205" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A206" s="6"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="7"/>
-      <c r="I206" s="7"/>
-      <c r="J206" s="7"/>
+      <c r="A206" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206" s="7">
+        <v>75</v>
+      </c>
+      <c r="C206" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D206" s="7">
+        <v>3</v>
+      </c>
+      <c r="E206" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F206" s="7">
+        <v>220</v>
+      </c>
+      <c r="G206" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="H206" s="7">
+        <v>5</v>
+      </c>
+      <c r="I206" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J206" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A207" s="6"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
-      <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
+      <c r="A207" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B207" s="7">
+        <v>90</v>
+      </c>
+      <c r="C207" s="7">
+        <v>6</v>
+      </c>
+      <c r="D207" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="E207" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="F207" s="7">
+        <v>220</v>
+      </c>
+      <c r="G207" s="7">
+        <v>12</v>
+      </c>
+      <c r="H207" s="7">
+        <v>3</v>
+      </c>
+      <c r="I207" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J207" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A208" s="6"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="7"/>
+      <c r="A208" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208" s="7">
+        <v>53</v>
+      </c>
+      <c r="C208" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D208" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="E208" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F208" s="7">
+        <v>220</v>
+      </c>
+      <c r="G208" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="H208" s="7">
+        <v>6</v>
+      </c>
+      <c r="I208" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J208" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A209" s="6"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
-      <c r="G209" s="7"/>
-      <c r="H209" s="7"/>
-      <c r="I209" s="7"/>
-      <c r="J209" s="7"/>
+      <c r="A209" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B209" s="7">
+        <v>62</v>
+      </c>
+      <c r="C209" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="D209" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="E209" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F209" s="7">
+        <v>220</v>
+      </c>
+      <c r="G209" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="H209" s="7">
+        <v>6</v>
+      </c>
+      <c r="I209" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J209" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A210" s="6"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="7"/>
-      <c r="I210" s="7"/>
-      <c r="J210" s="7"/>
+      <c r="A210" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B210" s="7">
+        <v>69</v>
+      </c>
+      <c r="C210" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="D210" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="E210" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F210" s="7">
+        <v>220</v>
+      </c>
+      <c r="G210" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="H210" s="7">
+        <v>6</v>
+      </c>
+      <c r="I210" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J210" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A211" s="6"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7"/>
-      <c r="I211" s="7"/>
-      <c r="J211" s="7"/>
+      <c r="A211" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B211" s="7">
+        <v>71</v>
+      </c>
+      <c r="C211" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D211" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="E211" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F211" s="7">
+        <v>220</v>
+      </c>
+      <c r="G211" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="H211" s="7">
+        <v>6</v>
+      </c>
+      <c r="I211" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J211" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A212" s="6"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
-      <c r="I212" s="7"/>
-      <c r="J212" s="7"/>
+      <c r="A212" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B212" s="7">
+        <v>43</v>
+      </c>
+      <c r="C212" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D212" s="7">
+        <v>7.88</v>
+      </c>
+      <c r="E212" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F212" s="7">
+        <v>355</v>
+      </c>
+      <c r="G212" s="7">
+        <v>65</v>
+      </c>
+      <c r="H212" s="7">
+        <v>4</v>
+      </c>
+      <c r="I212" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="J212" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A213" s="6"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
-      <c r="I213" s="7"/>
-      <c r="J213" s="7"/>
+      <c r="A213" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B213" s="7">
+        <v>40</v>
+      </c>
+      <c r="C213" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D213" s="7">
+        <v>8</v>
+      </c>
+      <c r="E213" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F213" s="7">
+        <v>550</v>
+      </c>
+      <c r="G213" s="7">
+        <v>117.3</v>
+      </c>
+      <c r="H213" s="7">
+        <v>7.25</v>
+      </c>
+      <c r="I213" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J213" s="5">
+        <v>400</v>
+      </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A214" s="6"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="7"/>
-      <c r="I214" s="7"/>
-      <c r="J214" s="7"/>
+      <c r="A214" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B214" s="7">
+        <v>29</v>
+      </c>
+      <c r="C214" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="D214" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="E214" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F214" s="7">
+        <v>880</v>
+      </c>
+      <c r="G214" s="7">
+        <v>273</v>
+      </c>
+      <c r="H214" s="7">
+        <v>8</v>
+      </c>
+      <c r="I214" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="J214" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A215" s="6"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-      <c r="I215" s="7"/>
-      <c r="J215" s="7"/>
+      <c r="A215" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B215" s="7">
+        <v>43</v>
+      </c>
+      <c r="C215" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D215" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E215" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F215" s="7">
+        <v>550</v>
+      </c>
+      <c r="G215" s="7">
+        <v>103</v>
+      </c>
+      <c r="H215" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="I215" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J215" s="5">
+        <v>350</v>
+      </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
@@ -8956,8 +12130,8 @@
       <c r="J493" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J77">
-    <sortCondition ref="A4:A77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J215">
+    <sortCondition ref="A4:A215"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{AEE76D55-8BA2-104C-A7C3-D743A1275482}">

--- a/Speaker DB/SpeakerDB (March 2019).xlsx
+++ b/Speaker DB/SpeakerDB (March 2019).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmrplens/Documents/GitHub/LoVE-BASS/Speaker DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D4A073-4442-0D4B-AE65-318074FAF07B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564DC21-AA38-D94A-BF77-59650501E1C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Name</t>
   </si>
@@ -763,6 +763,45 @@
   </si>
   <si>
     <t>B&amp;C Speakers 8PS21_8</t>
+  </si>
+  <si>
+    <t>Beyma 10LW30_N</t>
+  </si>
+  <si>
+    <t>Beyma 12LW30_N</t>
+  </si>
+  <si>
+    <t>Beyma 12WR400</t>
+  </si>
+  <si>
+    <t>Beyma 15LEX1600Nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyma 15LW30 </t>
+  </si>
+  <si>
+    <t>Beyma 15SW1300Nd</t>
+  </si>
+  <si>
+    <t>Beyma 6MI100</t>
+  </si>
+  <si>
+    <t>Beyma 6MI90</t>
+  </si>
+  <si>
+    <t>Beyma 6P200Nd</t>
+  </si>
+  <si>
+    <t>Beyma 8LW30</t>
+  </si>
+  <si>
+    <t>Beyma 8WOOFER_P V2</t>
+  </si>
+  <si>
+    <t>Beyma 8CM_B</t>
+  </si>
+  <si>
+    <t>Beyma 605Nd</t>
   </si>
 </sst>
 </file>
@@ -1427,9 +1466,9 @@
   <dimension ref="A1:Q493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2080" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="2080" topLeftCell="A135" activePane="bottomLeft"/>
       <selection sqref="A1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6520,217 +6559,217 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c r="B145" s="7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C145" s="7">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D145" s="7">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="E145" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="F145" s="7">
-        <v>350</v>
+        <v>350.00000000000006</v>
       </c>
       <c r="G145" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H145" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I145" s="7">
         <v>1</v>
       </c>
       <c r="J145" s="5">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B146" s="7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C146" s="7">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="D146" s="7">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="E146" s="7">
-        <v>0.24</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F146" s="7">
         <v>350</v>
       </c>
       <c r="G146" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H146" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I146" s="7">
         <v>1</v>
       </c>
       <c r="J146" s="5">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B147" s="7">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="C147" s="7">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="D147" s="7">
-        <v>22</v>
+        <v>3.8</v>
       </c>
       <c r="E147" s="7">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="F147" s="7">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="G147" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H147" s="7">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="I147" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J147" s="5">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B148" s="7">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="C148" s="7">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D148" s="7">
-        <v>10.1</v>
+        <v>22</v>
       </c>
       <c r="E148" s="7">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="F148" s="7">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="G148" s="7">
-        <v>18.8</v>
+        <v>2</v>
       </c>
       <c r="H148" s="7">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="I148" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J148" s="5">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B149" s="7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C149" s="7">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="D149" s="7">
-        <v>6.6</v>
+        <v>10.1</v>
       </c>
       <c r="E149" s="7">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="F149" s="7">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="G149" s="7">
-        <v>54</v>
+        <v>18.8</v>
       </c>
       <c r="H149" s="7">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="I149" s="7">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J149" s="5">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B150" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C150" s="7">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D150" s="7">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="E150" s="7">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="F150" s="7">
+        <v>380</v>
+      </c>
+      <c r="G150" s="7">
+        <v>54</v>
+      </c>
+      <c r="H150" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I150" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J150" s="5">
         <v>350</v>
-      </c>
-      <c r="G150" s="7">
-        <v>50.9</v>
-      </c>
-      <c r="H150" s="7">
-        <v>6</v>
-      </c>
-      <c r="I150" s="7">
-        <v>1</v>
-      </c>
-      <c r="J150" s="5">
-        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B151" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C151" s="7">
         <v>6.1</v>
       </c>
       <c r="D151" s="7">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="E151" s="7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F151" s="7">
         <v>350</v>
       </c>
       <c r="G151" s="7">
-        <v>39.299999999999997</v>
+        <v>50.9</v>
       </c>
       <c r="H151" s="7">
         <v>6</v>
@@ -6744,223 +6783,223 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B152" s="7">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C152" s="7">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D152" s="7">
-        <v>4.4400000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="E152" s="7">
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="F152" s="7">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="G152" s="7">
-        <v>142</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H152" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I152" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J152" s="5">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B153" s="7">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C153" s="7">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="D153" s="7">
-        <v>3.9</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E153" s="7">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F153" s="7">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="G153" s="7">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="H153" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I153" s="7">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="J153" s="5">
-        <v>320</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B154" s="7">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C154" s="7">
         <v>6</v>
       </c>
       <c r="D154" s="7">
-        <v>11.6</v>
+        <v>3.9</v>
       </c>
       <c r="E154" s="7">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="F154" s="7">
         <v>530</v>
       </c>
       <c r="G154" s="7">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H154" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I154" s="7">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="J154" s="5">
-        <v>500</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B155" s="7">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C155" s="7">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="D155" s="7">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="E155" s="7">
-        <v>1.26</v>
+        <v>0.3</v>
       </c>
       <c r="F155" s="7">
         <v>530</v>
       </c>
       <c r="G155" s="7">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="H155" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I155" s="7">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="J155" s="5">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B156" s="7">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C156" s="7">
-        <v>5.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="D156" s="7">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="E156" s="7">
-        <v>0.4</v>
+        <v>1.26</v>
       </c>
       <c r="F156" s="7">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="G156" s="7">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H156" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I156" s="7">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="J156" s="5">
-        <v>700</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="B157" s="7">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C157" s="7">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="D157" s="7">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="E157" s="7">
-        <v>0.39</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F157" s="7">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G157" s="7">
-        <v>54.9</v>
+        <v>84</v>
       </c>
       <c r="H157" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I157" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J157" s="5">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B158" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C158" s="7">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D158" s="7">
-        <v>4.0999999999999996</v>
+        <v>15.3</v>
       </c>
       <c r="E158" s="7">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="F158" s="7">
         <v>550</v>
       </c>
       <c r="G158" s="7">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H158" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I158" s="7">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="J158" s="5">
         <v>700</v>
@@ -6968,31 +7007,31 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B159" s="7">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C159" s="7">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="D159" s="7">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="E159" s="7">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="F159" s="7">
         <v>550</v>
       </c>
       <c r="G159" s="7">
-        <v>44</v>
+        <v>54.9</v>
       </c>
       <c r="H159" s="7">
         <v>8</v>
       </c>
       <c r="I159" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J159" s="5">
         <v>500</v>
@@ -7000,380 +7039,380 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B160" s="7">
+        <v>51</v>
+      </c>
+      <c r="C160" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D160" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E160" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F160" s="7">
+        <v>550</v>
+      </c>
+      <c r="G160" s="7">
         <v>58</v>
       </c>
-      <c r="C160" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="D160" s="7">
-        <v>5.54</v>
-      </c>
-      <c r="E160" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="F160" s="7">
-        <v>530</v>
-      </c>
-      <c r="G160" s="7">
-        <v>64</v>
-      </c>
       <c r="H160" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I160" s="7">
         <v>1</v>
       </c>
       <c r="J160" s="5">
-        <v>450</v>
+        <v>700</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B161" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C161" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="D161" s="7">
-        <v>7.89</v>
+        <v>7.8</v>
       </c>
       <c r="E161" s="7">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="F161" s="7">
         <v>550</v>
       </c>
       <c r="G161" s="7">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H161" s="7">
         <v>8</v>
       </c>
       <c r="I161" s="7">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J161" s="5">
-        <v>900</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B162" s="7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C162" s="7">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="D162" s="7">
-        <v>6.5</v>
+        <v>5.54</v>
       </c>
       <c r="E162" s="7">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F162" s="7">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="G162" s="7">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H162" s="7">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="I162" s="7">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J162" s="5">
-        <v>700</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B163" s="7">
         <v>47</v>
       </c>
       <c r="C163" s="7">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D163" s="7">
-        <v>5.2</v>
+        <v>7.89</v>
       </c>
       <c r="E163" s="7">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="F163" s="7">
         <v>550</v>
       </c>
       <c r="G163" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H163" s="7">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I163" s="7">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J163" s="5">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B164" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C164" s="7">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D164" s="7">
-        <v>12.07</v>
+        <v>6.5</v>
       </c>
       <c r="E164" s="7">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="F164" s="7">
         <v>550</v>
       </c>
       <c r="G164" s="7">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H164" s="7">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="I164" s="7">
-        <v>3.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J164" s="5">
-        <v>1200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B165" s="7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C165" s="7">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="D165" s="7">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="E165" s="7">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="F165" s="7">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="G165" s="7">
-        <v>77.900000000000006</v>
+        <v>65</v>
       </c>
       <c r="H165" s="7">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="I165" s="7">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="J165" s="5">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B166" s="7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C166" s="7">
-        <v>6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D166" s="7">
-        <v>4.0999999999999996</v>
+        <v>12.07</v>
       </c>
       <c r="E166" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="F166" s="7">
-        <v>880</v>
+        <v>550</v>
       </c>
       <c r="G166" s="7">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="H166" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I166" s="7">
-        <v>1.2</v>
+        <v>3.25</v>
       </c>
       <c r="J166" s="5">
-        <v>350</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="B167" s="7">
         <v>42</v>
       </c>
       <c r="C167" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="D167" s="7">
-        <v>21.2</v>
+        <v>5.6</v>
       </c>
       <c r="E167" s="7">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="F167" s="7">
-        <v>910</v>
+        <v>530</v>
       </c>
       <c r="G167" s="7">
-        <v>105</v>
+        <v>91.1</v>
       </c>
       <c r="H167" s="7">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="I167" s="7">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="J167" s="5">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B168" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C168" s="7">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="D168" s="7">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="E168" s="7">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="F168" s="7">
-        <v>880</v>
+        <v>530</v>
       </c>
       <c r="G168" s="7">
-        <v>131.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="H168" s="7">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="I168" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="J168" s="5">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B169" s="7">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C169" s="7">
         <v>6</v>
       </c>
       <c r="D169" s="7">
-        <v>5.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E169" s="7">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F169" s="7">
         <v>880</v>
       </c>
       <c r="G169" s="7">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="H169" s="7">
-        <v>9.8000000000000007</v>
+        <v>7</v>
       </c>
       <c r="I169" s="7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J169" s="5">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="B170" s="7">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C170" s="7">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D170" s="7">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="E170" s="7">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="F170" s="7">
         <v>880</v>
       </c>
       <c r="G170" s="7">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H170" s="7">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="I170" s="7">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="J170" s="5">
-        <v>700</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="B171" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C171" s="7">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="D171" s="7">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="E171" s="7">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="F171" s="7">
         <v>880</v>
       </c>
       <c r="G171" s="7">
-        <v>133.5</v>
+        <v>251</v>
       </c>
       <c r="H171" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I171" s="7">
         <v>1.1000000000000001</v>
@@ -7384,1149 +7423,1149 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B172" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C172" s="7">
-        <v>6.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D172" s="7">
-        <v>6.3</v>
+        <v>21.2</v>
       </c>
       <c r="E172" s="7">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="F172" s="7">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="G172" s="7">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="H172" s="7">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="I172" s="7">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="J172" s="5">
-        <v>450</v>
+        <v>700</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B173" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C173" s="7">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="D173" s="7">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="E173" s="7">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="F173" s="7">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="G173" s="7">
-        <v>80.7</v>
+        <v>131.5</v>
       </c>
       <c r="H173" s="7">
         <v>8</v>
       </c>
       <c r="I173" s="7">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J173" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B174" s="7">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C174" s="7">
+        <v>6</v>
+      </c>
+      <c r="D174" s="7">
         <v>5.3</v>
       </c>
-      <c r="D174" s="7">
-        <v>5.5</v>
-      </c>
       <c r="E174" s="7">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="F174" s="7">
         <v>880</v>
       </c>
       <c r="G174" s="7">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="H174" s="7">
-        <v>7.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I174" s="7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J174" s="5">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B175" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C175" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D175" s="7">
-        <v>5.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="E175" s="7">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="F175" s="7">
         <v>880</v>
       </c>
       <c r="G175" s="7">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="H175" s="7">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I175" s="7">
         <v>0.8</v>
       </c>
       <c r="J175" s="5">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B176" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C176" s="7">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="D176" s="7">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="E176" s="7">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="F176" s="7">
         <v>880</v>
       </c>
       <c r="G176" s="7">
-        <v>224</v>
+        <v>133.5</v>
       </c>
       <c r="H176" s="7">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="I176" s="7">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J176" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B177" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C177" s="7">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D177" s="7">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="E177" s="7">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="F177" s="7">
         <v>880</v>
       </c>
       <c r="G177" s="7">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="H177" s="7">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="I177" s="7">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J177" s="5">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B178" s="7">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C178" s="7">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="D178" s="7">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="E178" s="7">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="F178" s="7">
-        <v>1320</v>
+        <v>855</v>
       </c>
       <c r="G178" s="7">
-        <v>290</v>
+        <v>80.7</v>
       </c>
       <c r="H178" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I178" s="7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J178" s="5">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B179" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C179" s="7">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="D179" s="7">
-        <v>11.4</v>
+        <v>5.5</v>
       </c>
       <c r="E179" s="7">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="F179" s="7">
-        <v>1255</v>
+        <v>880</v>
       </c>
       <c r="G179" s="7">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="H179" s="7">
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
       <c r="I179" s="7">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="J179" s="5">
-        <v>1600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B180" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C180" s="7">
         <v>5.0999999999999996</v>
       </c>
       <c r="D180" s="7">
-        <v>15.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E180" s="7">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="F180" s="7">
-        <v>1320</v>
+        <v>880</v>
       </c>
       <c r="G180" s="7">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="H180" s="7">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="I180" s="7">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="J180" s="5">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="6" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="B181" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C181" s="7">
         <v>5.2</v>
       </c>
       <c r="D181" s="7">
-        <v>10.5</v>
+        <v>14.7</v>
       </c>
       <c r="E181" s="7">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="F181" s="7">
-        <v>1250</v>
+        <v>880</v>
       </c>
       <c r="G181" s="7">
-        <v>230</v>
+        <v>89.6</v>
       </c>
       <c r="H181" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I181" s="7">
-        <v>1.75</v>
+        <v>3.45</v>
       </c>
       <c r="J181" s="5">
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B182" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C182" s="7">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D182" s="7">
-        <v>10.39</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E182" s="7">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F182" s="7">
-        <v>1225</v>
+        <v>880</v>
       </c>
       <c r="G182" s="7">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="H182" s="7">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="I182" s="7">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J182" s="5">
-        <v>1200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B183" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C183" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="D183" s="7">
-        <v>10.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="E183" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="F183" s="7">
-        <v>1255</v>
+        <v>880</v>
       </c>
       <c r="G183" s="7">
-        <v>228.9</v>
+        <v>233</v>
       </c>
       <c r="H183" s="7">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="I183" s="7">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J183" s="5">
-        <v>1400</v>
+        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B184" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C184" s="7">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="D184" s="7">
-        <v>8.1999999999999993</v>
+        <v>7</v>
       </c>
       <c r="E184" s="7">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F184" s="7">
-        <v>1255</v>
+        <v>1320</v>
       </c>
       <c r="G184" s="7">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="H184" s="7">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="I184" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J184" s="5">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B185" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C185" s="7">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="D185" s="7">
-        <v>4.8</v>
+        <v>11.4</v>
       </c>
       <c r="E185" s="7">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F185" s="7">
         <v>1255</v>
       </c>
       <c r="G185" s="7">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="H185" s="7">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="I185" s="7">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="J185" s="5">
-        <v>600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B186" s="7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C186" s="7">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D186" s="7">
-        <v>4.4000000000000004</v>
+        <v>15.7</v>
       </c>
       <c r="E186" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F186" s="7">
-        <v>1734</v>
+        <v>1320</v>
       </c>
       <c r="G186" s="7">
-        <v>394</v>
+        <v>236</v>
       </c>
       <c r="H186" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I186" s="7">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J186" s="5">
-        <v>1600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B187" s="7">
+        <v>33</v>
+      </c>
+      <c r="C187" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D187" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="E187" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F187" s="7">
+        <v>1250</v>
+      </c>
+      <c r="G187" s="7">
+        <v>230</v>
+      </c>
+      <c r="H187" s="7">
+        <v>8</v>
+      </c>
+      <c r="I187" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="J187" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A188" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B188" s="7">
+        <v>37</v>
+      </c>
+      <c r="C188" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D188" s="7">
+        <v>10.39</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F188" s="7">
+        <v>1225</v>
+      </c>
+      <c r="G188" s="7">
+        <v>198</v>
+      </c>
+      <c r="H188" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="I188" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J188" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A189" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B189" s="7">
+        <v>32</v>
+      </c>
+      <c r="C189" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D189" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E189" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F189" s="7">
+        <v>1255</v>
+      </c>
+      <c r="G189" s="7">
+        <v>228.9</v>
+      </c>
+      <c r="H189" s="7">
+        <v>10</v>
+      </c>
+      <c r="I189" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J189" s="5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A190" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B190" s="7">
+        <v>27</v>
+      </c>
+      <c r="C190" s="7">
+        <v>6</v>
+      </c>
+      <c r="D190" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E190" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F190" s="7">
+        <v>1255</v>
+      </c>
+      <c r="G190" s="7">
+        <v>317</v>
+      </c>
+      <c r="H190" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="I190" s="7">
+        <v>2</v>
+      </c>
+      <c r="J190" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A191" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" s="7">
+        <v>32</v>
+      </c>
+      <c r="C191" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D191" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="E191" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F191" s="7">
+        <v>1255</v>
+      </c>
+      <c r="G191" s="7">
+        <v>372</v>
+      </c>
+      <c r="H191" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="I191" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J191" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A192" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B192" s="7">
+        <v>30</v>
+      </c>
+      <c r="C192" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D192" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E192" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F192" s="7">
+        <v>1734</v>
+      </c>
+      <c r="G192" s="7">
+        <v>394</v>
+      </c>
+      <c r="H192" s="7">
+        <v>13</v>
+      </c>
+      <c r="I192" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="J192" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A193" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B187" s="7">
+      <c r="B193" s="7">
         <v>160</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C193" s="7">
         <v>5.6</v>
       </c>
-      <c r="D187" s="7">
+      <c r="D193" s="7">
         <v>8</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E193" s="7">
         <v>0.52</v>
       </c>
-      <c r="F187" s="7">
+      <c r="F193" s="7">
         <f>0.003*10^4</f>
         <v>30</v>
       </c>
-      <c r="G187" s="7">
+      <c r="G193" s="7">
         <v>0.67</v>
       </c>
-      <c r="H187" s="7">
+      <c r="H193" s="7">
         <v>4.5</v>
       </c>
-      <c r="I187" s="7">
+      <c r="I193" s="7">
         <v>0.25</v>
       </c>
-      <c r="J187" s="5">
+      <c r="J193" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A188" s="6" t="s">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A194" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B194" s="7">
         <v>180</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C194" s="7">
         <v>5.5</v>
       </c>
-      <c r="D188" s="7">
+      <c r="D194" s="7">
         <v>9.5</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E194" s="7">
         <v>0.6</v>
       </c>
-      <c r="F188" s="7">
+      <c r="F194" s="7">
         <v>30</v>
       </c>
-      <c r="G188" s="7">
+      <c r="G194" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H188" s="7">
+      <c r="H194" s="7">
         <v>4.5</v>
       </c>
-      <c r="I188" s="7">
+      <c r="I194" s="7">
         <v>0.3</v>
       </c>
-      <c r="J188" s="5">
+      <c r="J194" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A189" s="6" t="s">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A195" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B189" s="7">
+      <c r="B195" s="7">
         <v>92</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C195" s="7">
         <v>6.4</v>
       </c>
-      <c r="D189" s="7">
+      <c r="D195" s="7">
         <v>11.3</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E195" s="7">
         <v>0.96</v>
       </c>
-      <c r="F189" s="7">
+      <c r="F195" s="7">
         <f>0.0055*10^4</f>
         <v>55</v>
       </c>
-      <c r="G189" s="7">
+      <c r="G195" s="7">
         <v>2.8</v>
       </c>
-      <c r="H189" s="7">
+      <c r="H195" s="7">
         <v>3</v>
       </c>
-      <c r="I189" s="7">
+      <c r="I195" s="7">
         <v>0.2</v>
       </c>
-      <c r="J189" s="5">
+      <c r="J195" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A190" s="6" t="s">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A196" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B190" s="7">
+      <c r="B196" s="7">
         <v>94</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C196" s="7">
         <v>6.4</v>
       </c>
-      <c r="D190" s="7">
+      <c r="D196" s="7">
         <v>10.8</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E196" s="7">
         <v>0.78</v>
       </c>
-      <c r="F190" s="7">
+      <c r="F196" s="7">
         <f>0.0055*10^4</f>
         <v>55</v>
       </c>
-      <c r="G190" s="7">
+      <c r="G196" s="7">
         <v>2.7</v>
       </c>
-      <c r="H190" s="7">
+      <c r="H196" s="7">
         <v>3</v>
       </c>
-      <c r="I190" s="7">
+      <c r="I196" s="7">
         <v>0.2</v>
       </c>
-      <c r="J190" s="5">
+      <c r="J196" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A191" s="6" t="s">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A197" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B191" s="7">
+      <c r="B197" s="7">
         <v>140</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C197" s="7">
         <v>6.2</v>
       </c>
-      <c r="D191" s="7">
+      <c r="D197" s="7">
         <v>2.8</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E197" s="7">
         <v>0.53</v>
       </c>
-      <c r="F191" s="7">
+      <c r="F197" s="7">
         <v>85</v>
       </c>
-      <c r="G191" s="7">
+      <c r="G197" s="7">
         <v>1.45</v>
       </c>
-      <c r="H191" s="7">
+      <c r="H197" s="7">
         <v>3</v>
       </c>
-      <c r="I191" s="7">
+      <c r="I197" s="7">
         <v>0.2</v>
       </c>
-      <c r="J191" s="5">
+      <c r="J197" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A192" s="6" t="s">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A198" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B192" s="7">
+      <c r="B198" s="7">
         <v>63</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C198" s="7">
         <v>5.3</v>
       </c>
-      <c r="D192" s="7">
+      <c r="D198" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E198" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F192" s="7">
+      <c r="F198" s="7">
         <v>85</v>
       </c>
-      <c r="G192" s="7">
+      <c r="G198" s="7">
         <v>5.8</v>
       </c>
-      <c r="H192" s="7">
+      <c r="H198" s="7">
         <v>5.5</v>
       </c>
-      <c r="I192" s="7">
+      <c r="I198" s="7">
         <v>0.2</v>
       </c>
-      <c r="J192" s="5">
+      <c r="J198" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A193" s="6" t="s">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A199" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B199" s="7">
         <v>72</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C199" s="7">
         <v>5.2</v>
       </c>
-      <c r="D193" s="7">
+      <c r="D199" s="7">
         <v>7.5</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E199" s="7">
         <v>0.35</v>
       </c>
-      <c r="F193" s="7">
+      <c r="F199" s="7">
         <v>95</v>
       </c>
-      <c r="G193" s="7">
+      <c r="G199" s="7">
         <v>5.69</v>
       </c>
-      <c r="H193" s="7">
+      <c r="H199" s="7">
         <v>5.7</v>
       </c>
-      <c r="I193" s="7">
+      <c r="I199" s="7">
         <v>0.6</v>
       </c>
-      <c r="J193" s="5">
+      <c r="J199" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A194" s="6" t="s">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A200" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B194" s="7">
+      <c r="B200" s="7">
         <v>78</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C200" s="7">
         <v>5.3</v>
       </c>
-      <c r="D194" s="7">
+      <c r="D200" s="7">
         <v>10.7</v>
       </c>
-      <c r="E194" s="7">
+      <c r="E200" s="7">
         <v>0.31</v>
       </c>
-      <c r="F194" s="7">
+      <c r="F200" s="7">
         <v>95</v>
       </c>
-      <c r="G194" s="7">
+      <c r="G200" s="7">
         <v>4.5</v>
       </c>
-      <c r="H194" s="7">
+      <c r="H200" s="7">
         <v>5.7</v>
       </c>
-      <c r="I194" s="7">
+      <c r="I200" s="7">
         <v>0.3</v>
       </c>
-      <c r="J194" s="5">
+      <c r="J200" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A195" s="6" t="s">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A201" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B201" s="7">
+        <v>150</v>
+      </c>
+      <c r="C201" s="7">
+        <v>6</v>
+      </c>
+      <c r="D201" s="7">
+        <v>9.68</v>
+      </c>
+      <c r="E201" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F201" s="7">
+        <v>140</v>
+      </c>
+      <c r="G201" s="7">
+        <v>3</v>
+      </c>
+      <c r="H201" s="7">
+        <v>1</v>
+      </c>
+      <c r="I201" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J201" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A202" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B202" s="7">
         <v>56</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C202" s="7">
         <v>5.5</v>
       </c>
-      <c r="D195" s="7">
+      <c r="D202" s="7">
         <v>3</v>
       </c>
-      <c r="E195" s="7">
+      <c r="E202" s="7">
         <v>0.6</v>
       </c>
-      <c r="F195" s="7">
+      <c r="F202" s="7">
         <f>0.014*10^4</f>
         <v>140</v>
       </c>
-      <c r="G195" s="7">
+      <c r="G202" s="7">
         <v>15.6</v>
       </c>
-      <c r="H195" s="7">
+      <c r="H202" s="7">
         <v>5.5</v>
       </c>
-      <c r="I195" s="7">
+      <c r="I202" s="7">
         <v>0.3</v>
       </c>
-      <c r="J195" s="5">
+      <c r="J202" s="5">
         <v>40</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A196" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B196" s="7">
-        <v>90</v>
-      </c>
-      <c r="C196" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="D196" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="E196" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="F196" s="7">
-        <v>140</v>
-      </c>
-      <c r="G196" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="H196" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="I196" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J196" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A197" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B197" s="7">
-        <v>102</v>
-      </c>
-      <c r="C197" s="7">
-        <v>6</v>
-      </c>
-      <c r="D197" s="7">
-        <v>9.25</v>
-      </c>
-      <c r="E197" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="F197" s="7">
-        <v>140</v>
-      </c>
-      <c r="G197" s="7">
-        <v>5.04</v>
-      </c>
-      <c r="H197" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="I197" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J197" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A198" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B198" s="7">
-        <v>85</v>
-      </c>
-      <c r="C198" s="7">
-        <v>6</v>
-      </c>
-      <c r="D198" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="E198" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="F198" s="7">
-        <v>140</v>
-      </c>
-      <c r="G198" s="7">
-        <v>7</v>
-      </c>
-      <c r="H198" s="7">
-        <v>3</v>
-      </c>
-      <c r="I198" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J198" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A199" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B199" s="7">
-        <v>406</v>
-      </c>
-      <c r="C199" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="D199" s="7">
-        <v>10.3</v>
-      </c>
-      <c r="E199" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="F199" s="7">
-        <v>140</v>
-      </c>
-      <c r="G199" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="H199" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="I199" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J199" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A200" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B200" s="7">
-        <v>58</v>
-      </c>
-      <c r="C200" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D200" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E200" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="F200" s="7">
-        <v>135</v>
-      </c>
-      <c r="G200" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="H200" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="I200" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J200" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A201" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B201" s="7">
-        <v>52</v>
-      </c>
-      <c r="C201" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="D201" s="7">
-        <v>5.56</v>
-      </c>
-      <c r="E201" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F201" s="7">
-        <v>220</v>
-      </c>
-      <c r="G201" s="7">
-        <v>29.6</v>
-      </c>
-      <c r="H201" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="I201" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="J201" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A202" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B202" s="7">
-        <v>30</v>
-      </c>
-      <c r="C202" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="D202" s="7">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E202" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F202" s="7">
-        <v>220</v>
-      </c>
-      <c r="G202" s="7">
-        <v>89.1</v>
-      </c>
-      <c r="H202" s="7">
-        <v>6.7</v>
-      </c>
-      <c r="I202" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J202" s="5">
-        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B203" s="7">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C203" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="D203" s="7">
-        <v>7.7</v>
+        <v>1.4</v>
       </c>
       <c r="E203" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="F203" s="7">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="G203" s="7">
-        <v>14.6</v>
+        <v>6.5</v>
       </c>
       <c r="H203" s="7">
         <v>5.7</v>
       </c>
       <c r="I203" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J203" s="5">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B204" s="7">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C204" s="7">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="D204" s="7">
-        <v>6.83</v>
+        <v>9.25</v>
       </c>
       <c r="E204" s="7">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="F204" s="7">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="G204" s="7">
-        <v>17</v>
+        <v>5.04</v>
       </c>
       <c r="H204" s="7">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I204" s="7">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="J204" s="5">
-        <v>250</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B205" s="7">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C205" s="7">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="D205" s="7">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="E205" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="F205" s="7">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="G205" s="7">
-        <v>11.6</v>
+        <v>7</v>
       </c>
       <c r="H205" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I205" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J205" s="5">
-        <v>300</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B206" s="7">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="C206" s="7">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="D206" s="7">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="E206" s="7">
-        <v>0.2</v>
+        <v>0.77</v>
       </c>
       <c r="F206" s="7">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="G206" s="7">
-        <v>12.2</v>
+        <v>0.27</v>
       </c>
       <c r="H206" s="7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I206" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J206" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="6" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="B207" s="7">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C207" s="7">
         <v>6</v>
       </c>
       <c r="D207" s="7">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="E207" s="7">
-        <v>0.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F207" s="7">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="G207" s="7">
-        <v>12</v>
+        <v>3.07</v>
       </c>
       <c r="H207" s="7">
         <v>3</v>
@@ -8540,417 +8579,690 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="6" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="B208" s="7">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C208" s="7">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="D208" s="7">
-        <v>14.3</v>
+        <v>8.4</v>
       </c>
       <c r="E208" s="7">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="F208" s="7">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="G208" s="7">
-        <v>24.8</v>
+        <v>3.35</v>
       </c>
       <c r="H208" s="7">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="I208" s="7">
         <v>0.4</v>
       </c>
       <c r="J208" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B209" s="7">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C209" s="7">
-        <v>5.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D209" s="7">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E209" s="7">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F209" s="7">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="G209" s="7">
-        <v>17.7</v>
+        <v>11.1</v>
       </c>
       <c r="H209" s="7">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I209" s="7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="J209" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" s="6" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="B210" s="7">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C210" s="7">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="D210" s="7">
-        <v>2.7</v>
+        <v>3.69</v>
       </c>
       <c r="E210" s="7">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F210" s="7">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="G210" s="7">
-        <v>13.1</v>
+        <v>11.9</v>
       </c>
       <c r="H210" s="7">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I210" s="7">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J210" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" s="6" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B211" s="7">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C211" s="7">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="D211" s="7">
-        <v>3.8</v>
+        <v>5.56</v>
       </c>
       <c r="E211" s="7">
-        <v>0.35</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F211" s="7">
         <v>220</v>
       </c>
       <c r="G211" s="7">
-        <v>14.4</v>
+        <v>29.6</v>
       </c>
       <c r="H211" s="7">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I211" s="7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J211" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="6" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B212" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C212" s="7">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="D212" s="7">
-        <v>7.88</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E212" s="7">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="F212" s="7">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="G212" s="7">
-        <v>65</v>
+        <v>89.1</v>
       </c>
       <c r="H212" s="7">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="I212" s="7">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="J212" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" s="6" t="s">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="B213" s="7">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C213" s="7">
         <v>6.2</v>
       </c>
       <c r="D213" s="7">
-        <v>8</v>
+        <v>13.46</v>
       </c>
       <c r="E213" s="7">
-        <v>0.31</v>
+        <v>0.65</v>
       </c>
       <c r="F213" s="7">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="G213" s="7">
-        <v>117.3</v>
+        <v>14.6</v>
       </c>
       <c r="H213" s="7">
-        <v>7.25</v>
+        <v>6.7</v>
       </c>
       <c r="I213" s="7">
         <v>1.2</v>
       </c>
       <c r="J213" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A214" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B214" s="7">
+        <v>75</v>
+      </c>
+      <c r="C214" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D214" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="E214" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F214" s="7">
+        <v>220</v>
+      </c>
+      <c r="G214" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="H214" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="I214" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J214" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A215" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" s="7">
+        <v>70</v>
+      </c>
+      <c r="C215" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="D215" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="E215" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F215" s="7">
+        <v>220</v>
+      </c>
+      <c r="G215" s="7">
+        <v>17</v>
+      </c>
+      <c r="H215" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I215" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="J215" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A216" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B216" s="7">
+        <v>70</v>
+      </c>
+      <c r="C216" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D216" s="7">
+        <v>7</v>
+      </c>
+      <c r="E216" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F216" s="7">
+        <v>220</v>
+      </c>
+      <c r="G216" s="7">
+        <v>16</v>
+      </c>
+      <c r="H216" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I216" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J216" s="5">
+        <v>250</v>
+      </c>
+      <c r="L216" s="7"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A217" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B217" s="7">
+        <v>76</v>
+      </c>
+      <c r="C217" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D217" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E217" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F217" s="7">
+        <v>220</v>
+      </c>
+      <c r="G217" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="H217" s="7">
+        <v>6</v>
+      </c>
+      <c r="I217" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J217" s="5">
+        <v>300</v>
+      </c>
+      <c r="L217" s="7"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A218" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B218" s="7">
+        <v>75</v>
+      </c>
+      <c r="C218" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D218" s="7">
+        <v>3</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F218" s="7">
+        <v>220</v>
+      </c>
+      <c r="G218" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="H218" s="7">
+        <v>5</v>
+      </c>
+      <c r="I218" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J218" s="5">
+        <v>500</v>
+      </c>
+      <c r="L218" s="7"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A219" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B219" s="7">
+        <v>90</v>
+      </c>
+      <c r="C219" s="7">
+        <v>6</v>
+      </c>
+      <c r="D219" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="E219" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="F219" s="7">
+        <v>220</v>
+      </c>
+      <c r="G219" s="7">
+        <v>12</v>
+      </c>
+      <c r="H219" s="7">
+        <v>3</v>
+      </c>
+      <c r="I219" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J219" s="5">
+        <v>250</v>
+      </c>
+      <c r="L219" s="7"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A220" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" s="7">
+        <v>53</v>
+      </c>
+      <c r="C220" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D220" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="E220" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="F220" s="7">
+        <v>220</v>
+      </c>
+      <c r="G220" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="H220" s="7">
+        <v>6</v>
+      </c>
+      <c r="I220" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J220" s="5">
+        <v>300</v>
+      </c>
+      <c r="L220" s="7"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A221" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B221" s="7">
+        <v>35</v>
+      </c>
+      <c r="C221" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D221" s="7">
+        <v>2.72</v>
+      </c>
+      <c r="E221" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="F221" s="7">
+        <v>220</v>
+      </c>
+      <c r="G221" s="7">
+        <v>59</v>
+      </c>
+      <c r="H221" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="I221" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J221" s="5">
+        <v>50</v>
+      </c>
+      <c r="L221" s="7"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A222" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B222" s="7">
+        <v>62</v>
+      </c>
+      <c r="C222" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="D222" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="E222" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F222" s="7">
+        <v>220</v>
+      </c>
+      <c r="G222" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="H222" s="7">
+        <v>6</v>
+      </c>
+      <c r="I222" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J222" s="5">
+        <v>300</v>
+      </c>
+      <c r="L222" s="7"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A223" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B223" s="7">
+        <v>69</v>
+      </c>
+      <c r="C223" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="D223" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="E223" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F223" s="7">
+        <v>220</v>
+      </c>
+      <c r="G223" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="H223" s="7">
+        <v>6</v>
+      </c>
+      <c r="I223" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J223" s="5">
+        <v>300</v>
+      </c>
+      <c r="L223" s="7"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A224" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B224" s="7">
+        <v>71</v>
+      </c>
+      <c r="C224" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D224" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="E224" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F224" s="7">
+        <v>220</v>
+      </c>
+      <c r="G224" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="H224" s="7">
+        <v>6</v>
+      </c>
+      <c r="I224" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J224" s="5">
+        <v>150</v>
+      </c>
+      <c r="L224" s="7"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A225" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B225" s="7">
+        <v>43</v>
+      </c>
+      <c r="C225" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D225" s="7">
+        <v>7.88</v>
+      </c>
+      <c r="E225" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F225" s="7">
+        <v>355</v>
+      </c>
+      <c r="G225" s="7">
+        <v>65</v>
+      </c>
+      <c r="H225" s="7">
+        <v>4</v>
+      </c>
+      <c r="I225" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="J225" s="5">
+        <v>200</v>
+      </c>
+      <c r="L225" s="7"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A226" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B226" s="7">
+        <v>40</v>
+      </c>
+      <c r="C226" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D226" s="7">
+        <v>8</v>
+      </c>
+      <c r="E226" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F226" s="7">
+        <v>550</v>
+      </c>
+      <c r="G226" s="7">
+        <v>117.3</v>
+      </c>
+      <c r="H226" s="7">
+        <v>7.25</v>
+      </c>
+      <c r="I226" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J226" s="5">
         <v>400</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A214" s="6" t="s">
+      <c r="L226" s="7"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A227" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B214" s="7">
+      <c r="B227" s="7">
         <v>29</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C227" s="7">
         <v>6.1</v>
       </c>
-      <c r="D214" s="7">
+      <c r="D227" s="7">
         <v>5.8</v>
       </c>
-      <c r="E214" s="7">
+      <c r="E227" s="7">
         <v>0.26</v>
       </c>
-      <c r="F214" s="7">
+      <c r="F227" s="7">
         <v>880</v>
       </c>
-      <c r="G214" s="7">
+      <c r="G227" s="7">
         <v>273</v>
       </c>
-      <c r="H214" s="7">
+      <c r="H227" s="7">
         <v>8</v>
       </c>
-      <c r="I214" s="7">
+      <c r="I227" s="7">
         <v>1.6</v>
       </c>
-      <c r="J214" s="5">
+      <c r="J227" s="5">
         <v>500</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A215" s="6" t="s">
+      <c r="L227" s="7"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A228" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B215" s="7">
+      <c r="B228" s="7">
         <v>43</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C228" s="7">
         <v>5.5</v>
       </c>
-      <c r="D215" s="7">
+      <c r="D228" s="7">
         <v>5.3</v>
       </c>
-      <c r="E215" s="7">
+      <c r="E228" s="7">
         <v>0.41</v>
       </c>
-      <c r="F215" s="7">
+      <c r="F228" s="7">
         <v>550</v>
       </c>
-      <c r="G215" s="7">
+      <c r="G228" s="7">
         <v>103</v>
       </c>
-      <c r="H215" s="7">
+      <c r="H228" s="7">
         <v>8.25</v>
       </c>
-      <c r="I215" s="7">
+      <c r="I228" s="7">
         <v>0.6</v>
       </c>
-      <c r="J215" s="5">
+      <c r="J228" s="5">
         <v>350</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A216" s="6"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7"/>
-      <c r="G216" s="7"/>
-      <c r="H216" s="7"/>
-      <c r="I216" s="7"/>
-      <c r="J216" s="7"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A217" s="6"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
-      <c r="I217" s="7"/>
-      <c r="J217" s="7"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A218" s="6"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A219" s="6"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A220" s="6"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
-      <c r="I220" s="7"/>
-      <c r="J220" s="7"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A221" s="6"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
-      <c r="I221" s="7"/>
-      <c r="J221" s="7"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A222" s="6"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
-      <c r="I222" s="7"/>
-      <c r="J222" s="7"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A223" s="6"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
-      <c r="I223" s="7"/>
-      <c r="J223" s="7"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A224" s="6"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
-      <c r="I224" s="7"/>
-      <c r="J224" s="7"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A225" s="6"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
-      <c r="I225" s="7"/>
-      <c r="J225" s="7"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A226" s="6"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
-      <c r="I226" s="7"/>
-      <c r="J226" s="7"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A227" s="6"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
-      <c r="I227" s="7"/>
-      <c r="J227" s="7"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A228" s="6"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L228" s="7"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -8962,7 +9274,7 @@
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -8974,7 +9286,7 @@
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -8986,7 +9298,7 @@
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -8998,7 +9310,7 @@
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -9010,7 +9322,7 @@
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -9022,7 +9334,7 @@
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -9034,7 +9346,7 @@
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -9046,7 +9358,7 @@
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -9058,7 +9370,7 @@
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -9070,7 +9382,7 @@
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -9082,7 +9394,7 @@
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -12130,8 +12442,8 @@
       <c r="J493" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J215">
-    <sortCondition ref="A4:A215"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J228">
+    <sortCondition ref="A4:A228"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{AEE76D55-8BA2-104C-A7C3-D743A1275482}">
